--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC6035B5-4476-4386-B6A9-C66B68DDAC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A668E57F-2660-4E3C-BF50-854AD2ED6555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2766,10 +2766,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1c0131h09,S1d0212h16,S1d0213h08,S1d0214h11,S1d0215h14,S1d0215h15,S1d0216h09,S1d0216h18,S1d0218h09,S3aH7,S3e1112h14,S3e1114h10,S3e1117h16,S3e1118h13,S1aH6,S1b0130h17,S1d0214h10,S1d0215h09,S1d0215h13,S1d0215h17,S1d0216h10,S1d0216h11,S1d0218h18,S3e1113h16,S3e1114h09,S1aH4,S1c0131h10,S1d0212h09,S1d0214h17,S1d0215h12,S1d0215h16,S1d0216h17,S1d0217h07,S1d0218h08,S1d0218h15,S1d0218h17,S2aH2,S3e1112h18,S3e1113h12,S3e1113h13,S3e1114h13,S3e1114h14,S3e1115h07,S3e1117h08,S3e1117h12,S4aH6,S1c0131h16,S1d0212h10,S1d0212h12,S1d0213h14,S1d0214h09,S1d0216h15,S3e1112h09,S3e1112h10,S3e1113h10,S3e1113h18,S3e1115h16,S4aH2,S1b0130h11,S1d0213h07,S1d0216h12,S1d0217h17,S1d0218h10,S1d0218h11,S2aH7,S3aH4,S3e1115h08,S3e1115h13,S3e1116h14,S3e1116h17,S3e1117h17,S3e1117h18,S3e1118h16,S4aH3,S4aH4,S1b0130h18,S1c0131h13,S1d0212h15,S1d0213h15,S1d0214h13,S3e1112h13,S3e1113h08,S3e1114h18,S3e1115h10,S3e1115h12,S3e1116h10,S3e1118h10,S3e1118h12,S3e1118h18,S1aH3,S1d0212h14,S1d0217h09,S1d0217h14,S1d0218h13,S3e1113h07,S3e1113h15,S3e1116h07,S3e1117h07,S3e1117h10,S1c0131h07,S1d0212h11,S1d0213h10,S1d0215h11,S1d0216h07,S1d0216h13,S1d0217h13,S1d0218h07,S1d0218h14,S3e1112h11,S3e1113h09,S3e1113h17,S3e1116h16,S3e1117h13,S4aH5,S1c0131h18,S1d0212h07,S1d0214h15,S1d0215h07,S1d0215h18,S1d0216h08,S3e1112h07,S3e1113h11,S3e1115h14,S3e1118h14,S1b0130h14,S1b0130h16,S1c0131h08,S1d0215h08,S1d0215h10,S1d0216h14,S1d0216h16,S3aH3,S3e1116h13,S3e1116h15,S3e1117h14,S3e1117h15,S3e1118h08,S3e1118h09,S1b0130h10,S1c0131h14,S1c0131h17,S1d0214h07,S1d0214h16,S2aH6,S3aH5,S3e1112h17,S3e1114h15,S3e1114h16,S3e1114h17,S3e1115h18,S3e1116h09,S3e1117h09,S3e1117h11,S1b0130h09,S1c0131h12,S1d0212h08,S1d0213h12,S1d0217h10,S1d0217h15,S1d0217h16,S3e1112h16,S3e1115h09,S3e1115h11,S1b0130h08,S1c0131h15,S1d0212h18,S1d0213h11,S1d0213h18,S1d0214h12,S1d0217h11,S1d0217h12,S1d0217h18,S1d0218h12,S3aH2,S3e1113h14,S3e1115h15,S3e1115h17,S1aH2,S1aH7,S1b0130h07,S1d0212h17,S1d0213h09,S1d0217h08,S1d0218h16,S2aH3,S3aH6,S3e1112h08,S3e1114h08,S3e1114h11,S3e1116h11,S3e1118h07,S3e1118h11,S3e1118h15,S3e1118h17,S4aH7,S1b0130h12,S1b0130h13,S1c0131h11,S1d0212h13,S1d0213h13,S1d0213h16,S1d0213h17,S1d0214h08,S3e1112h12,S3e1114h07,S3e1114h12,S1aH5,S1b0130h15,S1d0214h14,S1d0214h18,S2aH4,S2aH5,S3e1112h15,S3e1116h08,S3e1116h12,S3e1116h18</t>
-  </si>
-  <si>
-    <t>S1d0213h05,S1d0213h20,S1d0214h24,S1d0216h19,S2aH8,S3e1113h03,S3e1114h03,S3e1116h01,S3e1116h21,S3e1116h22,S3e1117h03,S3e1117h04,S1b0130h01,S1b0130h05,S1d0212h06,S1d0214h02,S1d0214h23,S1d0215h24,S1d0216h02,S3e1113h01,S3e1115h04,S3e1116h04,S3e1118h01,S3e1118h04,S1aH9,S1d0213h23,S1d0214h03,S1d0214h22,S1d0215h02,S1d0216h04,S1d0216h06,S3e1118h22,S3e1118h23,S4aH1,S1b0130h22,S1c0131h06,S1c0131h24,S1d0212h01,S1d0213h21,S1d0217h21,S1d0218h19,S2aH1,S2aH9,S3e1112h19,S3e1112h23,S3e1113h21,S1d0212h02,S1d0212h03,S1d0214h19,S1d0215h01,S3aH9,S3e1113h24,S3e1114h02,S3e1115h01,S3e1115h03,S3e1117h01,S3e1117h19,S1c0131h04,S1d0216h20,S1d0217h03,S1d0217h06,S1d0218h05,S3e1112h04,S3e1112h22,S3e1114h04,S3e1114h22,S3e1114h23,S3e1117h21,S3e1117h24,S3e1118h02,S1c0131h22,S1d0212h20,S1d0214h21,S1d0215h19,S1d0216h05,S1d0217h05,S1d0217h19,S3e1112h03,S3e1116h20,S1b0130h21,S1c0131h21,S1d0213h24,S1d0214h20,S1d0216h21,S1d0216h22,S1d0217h01,S1d0218h22,S3e1112h02,S3e1114h20,S3e1116h02,S3e1117h05,S3e1117h20,S3e1118h24,S1c0131h02,S1d0212h04,S1d0214h04,S1d0214h05,S1d0216h24,S1d0218h21,S3e1113h23,S3e1117h22,S4aH8,S1c0131h23,S1d0212h05,S1d0215h20,S1d0215h22,S1d0215h23,S1d0217h24,S1d0218h03,S3e1112h21,S3e1115h22,S3e1116h06,S3e1116h24,S3e1118h21,S1aH8,S1b0130h03,S1b0130h24,S1c0131h05,S1c0131h20,S1d0212h21,S1d0213h04,S1d0213h06,S1d0214h06,S1d0216h01,S1d0216h23,S1d0217h22,S3e1112h01,S3e1115h06,S3e1115h20,S3e1115h23,S3e1118h05,S1b0130h02,S1b0130h06,S1d0212h19,S1d0212h22,S1d0215h03,S1d0217h02,S1d0217h23,S1d0218h01,S1d0218h02,S1d0218h23,S3aH1,S3e1114h01,S3e1115h02,S3e1116h19,S3e1116h23,S3e1117h02,S3e1117h06,S4aH9,S1b0130h23,S1c0131h01,S1c0131h19,S1d0212h23,S1d0213h02,S1d0213h03,S1d0215h04,S1d0217h04,S1d0217h20,S3aH8,S3e1112h05,S3e1112h24,S3e1113h05,S3e1114h24,S3e1115h05,S3e1118h03,S1b0130h20,S1d0213h01,S1d0213h22,S1d0215h05,S1d0215h06,S1d0218h20,S1d0218h24,S3e1113h06,S3e1113h22,S3e1118h20,S1aH1,S1d0214h01,S1d0215h21,S1d0216h03,S1d0218h04,S1d0218h06,S3e1112h20,S3e1113h04,S3e1114h05,S3e1114h06,S3e1114h19,S3e1114h21,S3e1115h21,S3e1115h24,S3e1118h06,S3e1118h19,S1b0130h04,S1b0130h19,S1c0131h03,S1d0212h24,S1d0213h19,S3e1112h06,S3e1113h02,S3e1113h19,S3e1113h20,S3e1115h19,S3e1116h03,S3e1116h05,S3e1117h23</t>
+    <t>S1b0130h14,S1b0130h16,S1c0131h08,S1d0215h08,S1d0215h10,S1d0216h14,S1d0216h16,S3aH3,S3e1116h13,S3e1116h15,S3e1117h14,S3e1117h15,S3e1118h08,S3e1118h09,S1b0130h08,S1c0131h15,S1d0212h18,S1d0213h11,S1d0213h18,S1d0214h12,S1d0217h11,S1d0217h12,S1d0217h18,S1d0218h12,S3aH2,S3e1113h14,S3e1115h15,S3e1115h17,S1aH6,S1b0130h17,S1d0214h10,S1d0215h09,S1d0215h13,S1d0215h17,S1d0216h10,S1d0216h11,S1d0218h18,S3e1113h16,S3e1114h09,S1aH3,S1d0212h14,S1d0217h09,S1d0217h14,S1d0218h13,S3e1113h07,S3e1113h15,S3e1116h07,S3e1117h07,S3e1117h10,S1b0130h11,S1d0213h07,S1d0216h12,S1d0217h17,S1d0218h10,S1d0218h11,S2aH7,S3aH4,S3e1115h08,S3e1115h13,S3e1116h14,S3e1116h17,S3e1117h17,S3e1117h18,S3e1118h16,S4aH3,S4aH4,S1c0131h18,S1d0212h07,S1d0214h15,S1d0215h07,S1d0215h18,S1d0216h08,S3e1112h07,S3e1113h11,S3e1115h14,S3e1118h14,S1b0130h10,S1c0131h14,S1c0131h17,S1d0214h07,S1d0214h16,S2aH6,S3aH5,S3e1112h17,S3e1114h15,S3e1114h16,S3e1114h17,S3e1115h18,S3e1116h09,S3e1117h09,S3e1117h11,S1aH4,S1c0131h10,S1d0212h09,S1d0214h17,S1d0215h12,S1d0215h16,S1d0216h17,S1d0217h07,S1d0218h08,S1d0218h15,S1d0218h17,S2aH2,S3e1112h18,S3e1113h12,S3e1113h13,S3e1114h13,S3e1114h14,S3e1115h07,S3e1117h08,S3e1117h12,S4aH6,S1aH5,S1b0130h15,S1d0214h14,S1d0214h18,S2aH4,S2aH5,S3e1112h15,S3e1116h08,S3e1116h12,S3e1116h18,S1aH2,S1aH7,S1b0130h07,S1d0212h17,S1d0213h09,S1d0217h08,S1d0218h16,S2aH3,S3aH6,S3e1112h08,S3e1114h08,S3e1114h11,S3e1116h11,S3e1118h07,S3e1118h11,S3e1118h15,S3e1118h17,S4aH7,S1b0130h09,S1c0131h12,S1d0212h08,S1d0213h12,S1d0217h10,S1d0217h15,S1d0217h16,S3e1112h16,S3e1115h09,S3e1115h11,S1b0130h18,S1c0131h13,S1d0212h15,S1d0213h15,S1d0214h13,S3e1112h13,S3e1113h08,S3e1114h18,S3e1115h10,S3e1115h12,S3e1116h10,S3e1118h10,S3e1118h12,S3e1118h18,S1c0131h09,S1d0212h16,S1d0213h08,S1d0214h11,S1d0215h14,S1d0215h15,S1d0216h09,S1d0216h18,S1d0218h09,S3aH7,S3e1112h14,S3e1114h10,S3e1117h16,S3e1118h13,S1c0131h16,S1d0212h10,S1d0212h12,S1d0213h14,S1d0214h09,S1d0216h15,S3e1112h09,S3e1112h10,S3e1113h10,S3e1113h18,S3e1115h16,S4aH2,S1c0131h07,S1d0212h11,S1d0213h10,S1d0215h11,S1d0216h07,S1d0216h13,S1d0217h13,S1d0218h07,S1d0218h14,S3e1112h11,S3e1113h09,S3e1113h17,S3e1116h16,S3e1117h13,S4aH5,S1b0130h12,S1b0130h13,S1c0131h11,S1d0212h13,S1d0213h13,S1d0213h16,S1d0213h17,S1d0214h08,S3e1112h12,S3e1114h07,S3e1114h12</t>
+  </si>
+  <si>
+    <t>S1c0131h23,S1d0212h05,S1d0215h20,S1d0215h22,S1d0215h23,S1d0217h24,S1d0218h03,S3e1112h21,S3e1115h22,S3e1116h06,S3e1116h24,S3e1118h21,S1b0130h23,S1c0131h01,S1c0131h19,S1d0212h23,S1d0213h02,S1d0213h03,S1d0215h04,S1d0217h04,S1d0217h20,S3aH8,S3e1112h05,S3e1112h24,S3e1113h05,S3e1114h24,S3e1115h05,S3e1118h03,S1b0130h01,S1b0130h05,S1d0212h06,S1d0214h02,S1d0214h23,S1d0215h24,S1d0216h02,S3e1113h01,S3e1115h04,S3e1116h04,S3e1118h01,S3e1118h04,S1c0131h22,S1d0212h20,S1d0214h21,S1d0215h19,S1d0216h05,S1d0217h05,S1d0217h19,S3e1112h03,S3e1116h20,S1d0212h02,S1d0212h03,S1d0214h19,S1d0215h01,S3aH9,S3e1113h24,S3e1114h02,S3e1115h01,S3e1115h03,S3e1117h01,S3e1117h19,S1c0131h02,S1d0212h04,S1d0214h04,S1d0214h05,S1d0216h24,S1d0218h21,S3e1113h23,S3e1117h22,S4aH8,S1aH8,S1b0130h03,S1b0130h24,S1c0131h05,S1c0131h20,S1d0212h21,S1d0213h04,S1d0213h06,S1d0214h06,S1d0216h01,S1d0216h23,S1d0217h22,S3e1112h01,S3e1115h06,S3e1115h20,S3e1115h23,S3e1118h05,S1aH9,S1d0213h23,S1d0214h03,S1d0214h22,S1d0215h02,S1d0216h04,S1d0216h06,S3e1118h22,S3e1118h23,S4aH1,S1b0130h04,S1b0130h19,S1c0131h03,S1d0212h24,S1d0213h19,S3e1112h06,S3e1113h02,S3e1113h19,S3e1113h20,S3e1115h19,S3e1116h03,S3e1116h05,S3e1117h23,S1b0130h20,S1d0213h01,S1d0213h22,S1d0215h05,S1d0215h06,S1d0218h20,S1d0218h24,S3e1113h06,S3e1113h22,S3e1118h20,S1b0130h02,S1b0130h06,S1d0212h19,S1d0212h22,S1d0215h03,S1d0217h02,S1d0217h23,S1d0218h01,S1d0218h02,S1d0218h23,S3aH1,S3e1114h01,S3e1115h02,S3e1116h19,S3e1116h23,S3e1117h02,S3e1117h06,S4aH9,S1c0131h04,S1d0216h20,S1d0217h03,S1d0217h06,S1d0218h05,S3e1112h04,S3e1112h22,S3e1114h04,S3e1114h22,S3e1114h23,S3e1117h21,S3e1117h24,S3e1118h02,S1d0213h05,S1d0213h20,S1d0214h24,S1d0216h19,S2aH8,S3e1113h03,S3e1114h03,S3e1116h01,S3e1116h21,S3e1116h22,S3e1117h03,S3e1117h04,S1b0130h22,S1c0131h06,S1c0131h24,S1d0212h01,S1d0213h21,S1d0217h21,S1d0218h19,S2aH1,S2aH9,S3e1112h19,S3e1112h23,S3e1113h21,S1b0130h21,S1c0131h21,S1d0213h24,S1d0214h20,S1d0216h21,S1d0216h22,S1d0217h01,S1d0218h22,S3e1112h02,S3e1114h20,S3e1116h02,S3e1117h05,S3e1117h20,S3e1118h24,S1aH1,S1d0214h01,S1d0215h21,S1d0216h03,S1d0218h04,S1d0218h06,S3e1112h20,S3e1113h04,S3e1114h05,S3e1114h06,S3e1114h19,S3e1114h21,S3e1115h21,S3e1115h24,S3e1118h06,S3e1118h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2797,10 +2797,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -3008,7 +3007,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3030,16 +3029,14 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -3084,7 +3081,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281DC46A-291A-054F-85E8-7F714EFC43A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB9171A-2C2E-D3B4-8881-EB830B18F1D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3489,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1d0213h05,S1d0213h20,S1d0214h24,S1d0216h19,S2aH8,S3e1113h03,S3e1114h03,S3e1116h01,S3e1116h21,S3e1116h22,S3e1117h03,S3e1117h04,S1b0130h01,S1b0130h05,S1d0212h06,S1d0214h02,S1d0214h23,S1d0215h24,S1d0216h02,S3e1113h01,S3e1115h04,S3e1116h04,S3e1118h01,S3e1118h04,S1aH9,S1d0213h23,S1d0214h03,S1d0214h22,S1d0215h02,S1d0216h04,S1d0216h06,S3e1118h22,S3e1118h23,S4aH1,S1b0130h22,S1c0131h06,S1c0131h24,S1d0212h01,S1d0213h21,S1d0217h21,S1d0218h19,S2aH1,S2aH9,S3e1112h19,S3e1112h23,S3e1113h21,S1d0212h02,S1d0212h03,S1d0214h19,S1d0215h01,S3aH9,S3e1113h24,S3e1114h02,S3e1115h01,S3e1115h03,S3e1117h01,S3e1117h19,S1c0131h04,S1d0216h20,S1d0217h03,S1d0217h06,S1d0218h05,S3e1112h04,S3e1112h22,S3e1114h04,S3e1114h22,S3e1114h23,S3e1117h21,S3e1117h24,S3e1118h02,S1c0131h22,S1d0212h20,S1d0214h21,S1d0215h19,S1d0216h05,S1d0217h05,S1d0217h19,S3e1112h03,S3e1116h20,S1b0130h21,S1c0131h21,S1d0213h24,S1d0214h20,S1d0216h21,S1d0216h22,S1d0217h01,S1d0218h22,S3e1112h02,S3e1114h20,S3e1116h02,S3e1117h05,S3e1117h20,S3e1118h24,S1c0131h02,S1d0212h04,S1d0214h04,S1d0214h05,S1d0216h24,S1d0218h21,S3e1113h23,S3e1117h22,S4aH8,S1c0131h23,S1d0212h05,S1d0215h20,S1d0215h22,S1d0215h23,S1d0217h24,S1d0218h03,S3e1112h21,S3e1115h22,S3e1116h06,S3e1116h24,S3e1118h21,S1aH8,S1b0130h03,S1b0130h24,S1c0131h05,S1c0131h20,S1d0212h21,S1d0213h04,S1d0213h06,S1d0214h06,S1d0216h01,S1d0216h23,S1d0217h22,S3e1112h01,S3e1115h06,S3e1115h20,S3e1115h23,S3e1118h05,S1b0130h02,S1b0130h06,S1d0212h19,S1d0212h22,S1d0215h03,S1d0217h02,S1d0217h23,S1d0218h01,S1d0218h02,S1d0218h23,S3aH1,S3e1114h01,S3e1115h02,S3e1116h19,S3e1116h23,S3e1117h02,S3e1117h06,S4aH9,S1b0130h23,S1c0131h01,S1c0131h19,S1d0212h23,S1d0213h02,S1d0213h03,S1d0215h04,S1d0217h04,S1d0217h20,S3aH8,S3e1112h05,S3e1112h24,S3e1113h05,S3e1114h24,S3e1115h05,S3e1118h03,S1b0130h20,S1d0213h01,S1d0213h22,S1d0215h05,S1d0215h06,S1d0218h20,S1d0218h24,S3e1113h06,S3e1113h22,S3e1118h20,S1aH1,S1d0214h01,S1d0215h21,S1d0216h03,S1d0218h04,S1d0218h06,S3e1112h20,S3e1113h04,S3e1114h05,S3e1114h06,S3e1114h19,S3e1114h21,S3e1115h21,S3e1115h24,S3e1118h06,S3e1118h19,S1b0130h04,S1b0130h19,S1c0131h03,S1d0212h24,S1d0213h19,S3e1112h06,S3e1113h02,S3e1113h19,S3e1113h20,S3e1115h19,S3e1116h03,S3e1116h05,S3e1117h23</v>
+        <v>S1c0131h23,S1d0212h05,S1d0215h20,S1d0215h22,S1d0215h23,S1d0217h24,S1d0218h03,S3e1112h21,S3e1115h22,S3e1116h06,S3e1116h24,S3e1118h21,S1b0130h23,S1c0131h01,S1c0131h19,S1d0212h23,S1d0213h02,S1d0213h03,S1d0215h04,S1d0217h04,S1d0217h20,S3aH8,S3e1112h05,S3e1112h24,S3e1113h05,S3e1114h24,S3e1115h05,S3e1118h03,S1b0130h01,S1b0130h05,S1d0212h06,S1d0214h02,S1d0214h23,S1d0215h24,S1d0216h02,S3e1113h01,S3e1115h04,S3e1116h04,S3e1118h01,S3e1118h04,S1c0131h22,S1d0212h20,S1d0214h21,S1d0215h19,S1d0216h05,S1d0217h05,S1d0217h19,S3e1112h03,S3e1116h20,S1d0212h02,S1d0212h03,S1d0214h19,S1d0215h01,S3aH9,S3e1113h24,S3e1114h02,S3e1115h01,S3e1115h03,S3e1117h01,S3e1117h19,S1c0131h02,S1d0212h04,S1d0214h04,S1d0214h05,S1d0216h24,S1d0218h21,S3e1113h23,S3e1117h22,S4aH8,S1aH8,S1b0130h03,S1b0130h24,S1c0131h05,S1c0131h20,S1d0212h21,S1d0213h04,S1d0213h06,S1d0214h06,S1d0216h01,S1d0216h23,S1d0217h22,S3e1112h01,S3e1115h06,S3e1115h20,S3e1115h23,S3e1118h05,S1aH9,S1d0213h23,S1d0214h03,S1d0214h22,S1d0215h02,S1d0216h04,S1d0216h06,S3e1118h22,S3e1118h23,S4aH1,S1b0130h04,S1b0130h19,S1c0131h03,S1d0212h24,S1d0213h19,S3e1112h06,S3e1113h02,S3e1113h19,S3e1113h20,S3e1115h19,S3e1116h03,S3e1116h05,S3e1117h23,S1b0130h20,S1d0213h01,S1d0213h22,S1d0215h05,S1d0215h06,S1d0218h20,S1d0218h24,S3e1113h06,S3e1113h22,S3e1118h20,S1b0130h02,S1b0130h06,S1d0212h19,S1d0212h22,S1d0215h03,S1d0217h02,S1d0217h23,S1d0218h01,S1d0218h02,S1d0218h23,S3aH1,S3e1114h01,S3e1115h02,S3e1116h19,S3e1116h23,S3e1117h02,S3e1117h06,S4aH9,S1c0131h04,S1d0216h20,S1d0217h03,S1d0217h06,S1d0218h05,S3e1112h04,S3e1112h22,S3e1114h04,S3e1114h22,S3e1114h23,S3e1117h21,S3e1117h24,S3e1118h02,S1d0213h05,S1d0213h20,S1d0214h24,S1d0216h19,S2aH8,S3e1113h03,S3e1114h03,S3e1116h01,S3e1116h21,S3e1116h22,S3e1117h03,S3e1117h04,S1b0130h22,S1c0131h06,S1c0131h24,S1d0212h01,S1d0213h21,S1d0217h21,S1d0218h19,S2aH1,S2aH9,S3e1112h19,S3e1112h23,S3e1113h21,S1b0130h21,S1c0131h21,S1d0213h24,S1d0214h20,S1d0216h21,S1d0216h22,S1d0217h01,S1d0218h22,S3e1112h02,S3e1114h20,S3e1116h02,S3e1117h05,S3e1117h20,S3e1118h24,S1aH1,S1d0214h01,S1d0215h21,S1d0216h03,S1d0218h04,S1d0218h06,S3e1112h20,S3e1113h04,S3e1114h05,S3e1114h06,S3e1114h19,S3e1114h21,S3e1115h21,S3e1115h24,S3e1118h06,S3e1118h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3524,7 +3521,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1c0131h09,S1d0212h16,S1d0213h08,S1d0214h11,S1d0215h14,S1d0215h15,S1d0216h09,S1d0216h18,S1d0218h09,S3aH7,S3e1112h14,S3e1114h10,S3e1117h16,S3e1118h13,S1aH6,S1b0130h17,S1d0214h10,S1d0215h09,S1d0215h13,S1d0215h17,S1d0216h10,S1d0216h11,S1d0218h18,S3e1113h16,S3e1114h09,S1aH4,S1c0131h10,S1d0212h09,S1d0214h17,S1d0215h12,S1d0215h16,S1d0216h17,S1d0217h07,S1d0218h08,S1d0218h15,S1d0218h17,S2aH2,S3e1112h18,S3e1113h12,S3e1113h13,S3e1114h13,S3e1114h14,S3e1115h07,S3e1117h08,S3e1117h12,S4aH6,S1c0131h16,S1d0212h10,S1d0212h12,S1d0213h14,S1d0214h09,S1d0216h15,S3e1112h09,S3e1112h10,S3e1113h10,S3e1113h18,S3e1115h16,S4aH2,S1b0130h11,S1d0213h07,S1d0216h12,S1d0217h17,S1d0218h10,S1d0218h11,S2aH7,S3aH4,S3e1115h08,S3e1115h13,S3e1116h14,S3e1116h17,S3e1117h17,S3e1117h18,S3e1118h16,S4aH3,S4aH4,S1b0130h18,S1c0131h13,S1d0212h15,S1d0213h15,S1d0214h13,S3e1112h13,S3e1113h08,S3e1114h18,S3e1115h10,S3e1115h12,S3e1116h10,S3e1118h10,S3e1118h12,S3e1118h18,S1aH3,S1d0212h14,S1d0217h09,S1d0217h14,S1d0218h13,S3e1113h07,S3e1113h15,S3e1116h07,S3e1117h07,S3e1117h10,S1c0131h07,S1d0212h11,S1d0213h10,S1d0215h11,S1d0216h07,S1d0216h13,S1d0217h13,S1d0218h07,S1d0218h14,S3e1112h11,S3e1113h09,S3e1113h17,S3e1116h16,S3e1117h13,S4aH5,S1c0131h18,S1d0212h07,S1d0214h15,S1d0215h07,S1d0215h18,S1d0216h08,S3e1112h07,S3e1113h11,S3e1115h14,S3e1118h14,S1b0130h14,S1b0130h16,S1c0131h08,S1d0215h08,S1d0215h10,S1d0216h14,S1d0216h16,S3aH3,S3e1116h13,S3e1116h15,S3e1117h14,S3e1117h15,S3e1118h08,S3e1118h09,S1b0130h10,S1c0131h14,S1c0131h17,S1d0214h07,S1d0214h16,S2aH6,S3aH5,S3e1112h17,S3e1114h15,S3e1114h16,S3e1114h17,S3e1115h18,S3e1116h09,S3e1117h09,S3e1117h11,S1b0130h09,S1c0131h12,S1d0212h08,S1d0213h12,S1d0217h10,S1d0217h15,S1d0217h16,S3e1112h16,S3e1115h09,S3e1115h11,S1b0130h08,S1c0131h15,S1d0212h18,S1d0213h11,S1d0213h18,S1d0214h12,S1d0217h11,S1d0217h12,S1d0217h18,S1d0218h12,S3aH2,S3e1113h14,S3e1115h15,S3e1115h17,S1aH2,S1aH7,S1b0130h07,S1d0212h17,S1d0213h09,S1d0217h08,S1d0218h16,S2aH3,S3aH6,S3e1112h08,S3e1114h08,S3e1114h11,S3e1116h11,S3e1118h07,S3e1118h11,S3e1118h15,S3e1118h17,S4aH7,S1b0130h12,S1b0130h13,S1c0131h11,S1d0212h13,S1d0213h13,S1d0213h16,S1d0213h17,S1d0214h08,S3e1112h12,S3e1114h07,S3e1114h12,S1aH5,S1b0130h15,S1d0214h14,S1d0214h18,S2aH4,S2aH5,S3e1112h15,S3e1116h08,S3e1116h12,S3e1116h18</v>
+        <v>S1b0130h14,S1b0130h16,S1c0131h08,S1d0215h08,S1d0215h10,S1d0216h14,S1d0216h16,S3aH3,S3e1116h13,S3e1116h15,S3e1117h14,S3e1117h15,S3e1118h08,S3e1118h09,S1b0130h08,S1c0131h15,S1d0212h18,S1d0213h11,S1d0213h18,S1d0214h12,S1d0217h11,S1d0217h12,S1d0217h18,S1d0218h12,S3aH2,S3e1113h14,S3e1115h15,S3e1115h17,S1aH6,S1b0130h17,S1d0214h10,S1d0215h09,S1d0215h13,S1d0215h17,S1d0216h10,S1d0216h11,S1d0218h18,S3e1113h16,S3e1114h09,S1aH3,S1d0212h14,S1d0217h09,S1d0217h14,S1d0218h13,S3e1113h07,S3e1113h15,S3e1116h07,S3e1117h07,S3e1117h10,S1b0130h11,S1d0213h07,S1d0216h12,S1d0217h17,S1d0218h10,S1d0218h11,S2aH7,S3aH4,S3e1115h08,S3e1115h13,S3e1116h14,S3e1116h17,S3e1117h17,S3e1117h18,S3e1118h16,S4aH3,S4aH4,S1c0131h18,S1d0212h07,S1d0214h15,S1d0215h07,S1d0215h18,S1d0216h08,S3e1112h07,S3e1113h11,S3e1115h14,S3e1118h14,S1b0130h10,S1c0131h14,S1c0131h17,S1d0214h07,S1d0214h16,S2aH6,S3aH5,S3e1112h17,S3e1114h15,S3e1114h16,S3e1114h17,S3e1115h18,S3e1116h09,S3e1117h09,S3e1117h11,S1aH4,S1c0131h10,S1d0212h09,S1d0214h17,S1d0215h12,S1d0215h16,S1d0216h17,S1d0217h07,S1d0218h08,S1d0218h15,S1d0218h17,S2aH2,S3e1112h18,S3e1113h12,S3e1113h13,S3e1114h13,S3e1114h14,S3e1115h07,S3e1117h08,S3e1117h12,S4aH6,S1aH5,S1b0130h15,S1d0214h14,S1d0214h18,S2aH4,S2aH5,S3e1112h15,S3e1116h08,S3e1116h12,S3e1116h18,S1aH2,S1aH7,S1b0130h07,S1d0212h17,S1d0213h09,S1d0217h08,S1d0218h16,S2aH3,S3aH6,S3e1112h08,S3e1114h08,S3e1114h11,S3e1116h11,S3e1118h07,S3e1118h11,S3e1118h15,S3e1118h17,S4aH7,S1b0130h09,S1c0131h12,S1d0212h08,S1d0213h12,S1d0217h10,S1d0217h15,S1d0217h16,S3e1112h16,S3e1115h09,S3e1115h11,S1b0130h18,S1c0131h13,S1d0212h15,S1d0213h15,S1d0214h13,S3e1112h13,S3e1113h08,S3e1114h18,S3e1115h10,S3e1115h12,S3e1116h10,S3e1118h10,S3e1118h12,S3e1118h18,S1c0131h09,S1d0212h16,S1d0213h08,S1d0214h11,S1d0215h14,S1d0215h15,S1d0216h09,S1d0216h18,S1d0218h09,S3aH7,S3e1112h14,S3e1114h10,S3e1117h16,S3e1118h13,S1c0131h16,S1d0212h10,S1d0212h12,S1d0213h14,S1d0214h09,S1d0216h15,S3e1112h09,S3e1112h10,S3e1113h10,S3e1113h18,S3e1115h16,S4aH2,S1c0131h07,S1d0212h11,S1d0213h10,S1d0215h11,S1d0216h07,S1d0216h13,S1d0217h13,S1d0218h07,S1d0218h14,S3e1112h11,S3e1113h09,S3e1113h17,S3e1116h16,S3e1117h13,S4aH5,S1b0130h12,S1b0130h13,S1c0131h11,S1d0212h13,S1d0213h13,S1d0213h16,S1d0213h17,S1d0214h08,S3e1112h12,S3e1114h07,S3e1114h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -4137,7 +4134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E278EC1F-6750-4127-A5B9-EB147FA09578}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F2AEF6-A7C3-4A06-8684-9933F27E85E3}">
   <dimension ref="B2:F396"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7358,7 +7355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89152162-37AD-47C5-B553-4B7B4B25BAB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782948D5-0973-4150-B6C5-A5BBCCCEDDF3}">
   <dimension ref="A1:S430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7377,16 +7374,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
@@ -7439,13 +7436,13 @@
       <c r="O10" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="18" t="s">
         <v>915</v>
       </c>
     </row>
@@ -7477,8 +7474,8 @@
       <c r="L11" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="M11" s="17">
-        <v>653.89440425170812</v>
+      <c r="M11" s="14">
+        <v>0.13709551503368744</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>481</v>
@@ -7486,13 +7483,13 @@
       <c r="O11" s="13" t="s">
         <v>904</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <v>8.4099424771755762E-2</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="19" t="s">
         <v>916</v>
       </c>
     </row>
@@ -7524,8 +7521,8 @@
       <c r="L12" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="M12" s="18">
-        <v>90.041929399708124</v>
+      <c r="M12" s="16">
+        <v>1.8783903702752468E-2</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>481</v>
@@ -7533,13 +7530,13 @@
       <c r="O12" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="22">
         <v>0.16560240645944377</v>
       </c>
-      <c r="S12" s="23" t="s">
+      <c r="S12" s="21" t="s">
         <v>916</v>
       </c>
     </row>
@@ -7571,8 +7568,8 @@
       <c r="L13" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="M13" s="17">
-        <v>90.927969802254381</v>
+      <c r="M13" s="14">
+        <v>1.8982946931339794E-2</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>481</v>
@@ -7580,13 +7577,13 @@
       <c r="O13" s="13" t="s">
         <v>904</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="R13" s="22">
-        <v>0.62681935722201687</v>
-      </c>
-      <c r="S13" s="21" t="s">
+      <c r="R13" s="20">
+        <v>0.62681935722201698</v>
+      </c>
+      <c r="S13" s="19" t="s">
         <v>916</v>
       </c>
     </row>
@@ -7618,8 +7615,8 @@
       <c r="L14" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="M14" s="18">
-        <v>91.938915762979192</v>
+      <c r="M14" s="16">
+        <v>1.9204982087373309E-2</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>481</v>
@@ -7627,13 +7624,13 @@
       <c r="O14" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="Q14" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="22">
         <v>0.32347881154678343</v>
       </c>
-      <c r="S14" s="23" t="s">
+      <c r="S14" s="21" t="s">
         <v>916</v>
       </c>
     </row>
@@ -7665,8 +7662,8 @@
       <c r="L15" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="M15" s="17">
-        <v>90.71815136387437</v>
+      <c r="M15" s="14">
+        <v>1.8971115531642463E-2</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>481</v>
@@ -7703,8 +7700,8 @@
       <c r="L16" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="M16" s="18">
-        <v>469.62345955255461</v>
+      <c r="M16" s="16">
+        <v>9.8326807315093204E-2</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>481</v>
@@ -7741,8 +7738,8 @@
       <c r="L17" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="M17" s="17">
-        <v>194.61737190047438</v>
+      <c r="M17" s="14">
+        <v>4.0647140811432718E-2</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>481</v>
@@ -7779,8 +7776,8 @@
       <c r="L18" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="M18" s="18">
-        <v>97.105853507405868</v>
+      <c r="M18" s="16">
+        <v>2.0297014079324337E-2</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>481</v>
@@ -7817,8 +7814,8 @@
       <c r="L19" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="M19" s="17">
-        <v>477.65622840476794</v>
+      <c r="M19" s="14">
+        <v>0.10020583074340458</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>481</v>
@@ -7855,8 +7852,8 @@
       <c r="L20" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="M20" s="18">
-        <v>1</v>
+      <c r="M20" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>481</v>
@@ -7893,8 +7890,8 @@
       <c r="L21" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="M21" s="17">
-        <v>1</v>
+      <c r="M21" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>481</v>
@@ -7931,8 +7928,8 @@
       <c r="L22" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="M22" s="18">
-        <v>1</v>
+      <c r="M22" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>481</v>
@@ -7969,8 +7966,8 @@
       <c r="L23" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="M23" s="17">
-        <v>1</v>
+      <c r="M23" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N23" s="13" t="s">
         <v>481</v>
@@ -8007,8 +8004,8 @@
       <c r="L24" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="M24" s="18">
-        <v>1</v>
+      <c r="M24" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>481</v>
@@ -8045,8 +8042,8 @@
       <c r="L25" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="M25" s="17">
-        <v>1</v>
+      <c r="M25" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>481</v>
@@ -8083,8 +8080,8 @@
       <c r="L26" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="M26" s="18">
-        <v>1</v>
+      <c r="M26" s="16">
+        <v>2.1997249932630001E-4</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>481</v>
@@ -8121,8 +8118,8 @@
       <c r="L27" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="M27" s="17">
-        <v>1</v>
+      <c r="M27" s="14">
+        <v>2.2048418371319999E-4</v>
       </c>
       <c r="N27" s="13" t="s">
         <v>481</v>
@@ -8159,8 +8156,8 @@
       <c r="L28" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="M28" s="18">
-        <v>0.87705508160805623</v>
+      <c r="M28" s="16">
+        <v>1.737629315259E-4</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>481</v>
@@ -8197,8 +8194,8 @@
       <c r="L29" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="M29" s="17">
-        <v>0.6027185163384855</v>
+      <c r="M29" s="14">
+        <v>1.1972120699450001E-4</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>481</v>
@@ -8235,8 +8232,8 @@
       <c r="L30" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="M30" s="18">
-        <v>0.90381849842049056</v>
+      <c r="M30" s="16">
+        <v>1.921535616116E-4</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>481</v>
@@ -8273,8 +8270,8 @@
       <c r="L31" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="M31" s="17">
-        <v>1</v>
+      <c r="M31" s="14">
+        <v>2.2199566883339999E-4</v>
       </c>
       <c r="N31" s="13" t="s">
         <v>481</v>
@@ -8311,8 +8308,8 @@
       <c r="L32" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="M32" s="18">
-        <v>1</v>
+      <c r="M32" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>481</v>
@@ -8349,8 +8346,8 @@
       <c r="L33" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="M33" s="17">
-        <v>1</v>
+      <c r="M33" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>481</v>
@@ -8387,8 +8384,8 @@
       <c r="L34" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="M34" s="18">
-        <v>1</v>
+      <c r="M34" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>481</v>
@@ -8425,8 +8422,8 @@
       <c r="L35" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="M35" s="17">
-        <v>1</v>
+      <c r="M35" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N35" s="13" t="s">
         <v>481</v>
@@ -8463,8 +8460,8 @@
       <c r="L36" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="M36" s="18">
-        <v>1</v>
+      <c r="M36" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>481</v>
@@ -8501,8 +8498,8 @@
       <c r="L37" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="M37" s="17">
-        <v>1</v>
+      <c r="M37" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>481</v>
@@ -8539,8 +8536,8 @@
       <c r="L38" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="M38" s="18">
-        <v>1</v>
+      <c r="M38" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>481</v>
@@ -8577,8 +8574,8 @@
       <c r="L39" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="M39" s="17">
-        <v>1</v>
+      <c r="M39" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N39" s="13" t="s">
         <v>481</v>
@@ -8615,8 +8612,8 @@
       <c r="L40" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="M40" s="18">
-        <v>1</v>
+      <c r="M40" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>481</v>
@@ -8653,8 +8650,8 @@
       <c r="L41" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="M41" s="17">
-        <v>1</v>
+      <c r="M41" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N41" s="13" t="s">
         <v>481</v>
@@ -8691,8 +8688,8 @@
       <c r="L42" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="M42" s="18">
-        <v>1</v>
+      <c r="M42" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>481</v>
@@ -8729,8 +8726,8 @@
       <c r="L43" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="M43" s="17">
-        <v>0.86161720340781334</v>
+      <c r="M43" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N43" s="13" t="s">
         <v>481</v>
@@ -8767,8 +8764,8 @@
       <c r="L44" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="M44" s="18">
-        <v>0.40220779012646518</v>
+      <c r="M44" s="16">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N44" s="15" t="s">
         <v>481</v>
@@ -8805,8 +8802,8 @@
       <c r="L45" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="M45" s="17">
-        <v>2.17616795151395E-2</v>
+      <c r="M45" s="14">
+        <v>8.9143233160668748E-5</v>
       </c>
       <c r="N45" s="13" t="s">
         <v>481</v>
@@ -8843,8 +8840,8 @@
       <c r="L46" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="M46" s="18">
-        <v>2.17616795151395E-2</v>
+      <c r="M46" s="16">
+        <v>8.9143233160668748E-5</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>481</v>
@@ -8881,8 +8878,8 @@
       <c r="L47" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="M47" s="17">
-        <v>2.17616795151395E-2</v>
+      <c r="M47" s="14">
+        <v>1.3779084353459999E-4</v>
       </c>
       <c r="N47" s="13" t="s">
         <v>481</v>
@@ -8919,8 +8916,8 @@
       <c r="L48" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="M48" s="18">
-        <v>2.17616795151395E-2</v>
+      <c r="M48" s="16">
+        <v>1.3779084353459999E-4</v>
       </c>
       <c r="N48" s="15" t="s">
         <v>481</v>
@@ -8957,8 +8954,8 @@
       <c r="L49" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="M49" s="17">
-        <v>0.64273171641841242</v>
+      <c r="M49" s="14">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N49" s="13" t="s">
         <v>481</v>
@@ -8995,8 +8992,8 @@
       <c r="L50" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="M50" s="18">
-        <v>1</v>
+      <c r="M50" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>481</v>
@@ -9033,8 +9030,8 @@
       <c r="L51" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="M51" s="17">
-        <v>1</v>
+      <c r="M51" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N51" s="13" t="s">
         <v>481</v>
@@ -9071,8 +9068,8 @@
       <c r="L52" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="M52" s="18">
-        <v>1</v>
+      <c r="M52" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>481</v>
@@ -9109,8 +9106,8 @@
       <c r="L53" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="M53" s="17">
-        <v>1</v>
+      <c r="M53" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N53" s="13" t="s">
         <v>481</v>
@@ -9147,8 +9144,8 @@
       <c r="L54" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="M54" s="18">
-        <v>1</v>
+      <c r="M54" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N54" s="15" t="s">
         <v>481</v>
@@ -9185,8 +9182,8 @@
       <c r="L55" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="M55" s="17">
-        <v>1</v>
+      <c r="M55" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>481</v>
@@ -9223,8 +9220,8 @@
       <c r="L56" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="M56" s="18">
-        <v>1</v>
+      <c r="M56" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N56" s="15" t="s">
         <v>481</v>
@@ -9261,8 +9258,8 @@
       <c r="L57" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="M57" s="17">
-        <v>1</v>
+      <c r="M57" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N57" s="13" t="s">
         <v>481</v>
@@ -9299,8 +9296,8 @@
       <c r="L58" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="M58" s="18">
-        <v>1</v>
+      <c r="M58" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N58" s="15" t="s">
         <v>481</v>
@@ -9337,8 +9334,8 @@
       <c r="L59" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="M59" s="17">
-        <v>1</v>
+      <c r="M59" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N59" s="13" t="s">
         <v>481</v>
@@ -9375,8 +9372,8 @@
       <c r="L60" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="M60" s="18">
-        <v>1</v>
+      <c r="M60" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N60" s="15" t="s">
         <v>481</v>
@@ -9413,8 +9410,8 @@
       <c r="L61" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="M61" s="17">
-        <v>1</v>
+      <c r="M61" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N61" s="13" t="s">
         <v>481</v>
@@ -9451,8 +9448,8 @@
       <c r="L62" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="M62" s="18">
-        <v>1</v>
+      <c r="M62" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N62" s="15" t="s">
         <v>481</v>
@@ -9489,8 +9486,8 @@
       <c r="L63" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="M63" s="17">
-        <v>1</v>
+      <c r="M63" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N63" s="13" t="s">
         <v>481</v>
@@ -9527,8 +9524,8 @@
       <c r="L64" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="M64" s="18">
-        <v>1</v>
+      <c r="M64" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N64" s="15" t="s">
         <v>481</v>
@@ -9565,8 +9562,8 @@
       <c r="L65" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="M65" s="17">
-        <v>1</v>
+      <c r="M65" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N65" s="13" t="s">
         <v>481</v>
@@ -9603,8 +9600,8 @@
       <c r="L66" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="M66" s="18">
-        <v>1</v>
+      <c r="M66" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N66" s="15" t="s">
         <v>481</v>
@@ -9641,8 +9638,8 @@
       <c r="L67" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="M67" s="17">
-        <v>0.99492229852554559</v>
+      <c r="M67" s="14">
+        <v>2.181269939123E-4</v>
       </c>
       <c r="N67" s="13" t="s">
         <v>481</v>
@@ -9679,8 +9676,8 @@
       <c r="L68" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="M68" s="18">
-        <v>0.76384473077449178</v>
+      <c r="M68" s="16">
+        <v>1.5412063027759999E-4</v>
       </c>
       <c r="N68" s="15" t="s">
         <v>481</v>
@@ -9717,8 +9714,8 @@
       <c r="L69" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="M69" s="17">
-        <v>0.66186819452899504</v>
+      <c r="M69" s="14">
+        <v>1.317061044545E-4</v>
       </c>
       <c r="N69" s="13" t="s">
         <v>481</v>
@@ -9755,8 +9752,8 @@
       <c r="L70" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="M70" s="18">
-        <v>0.60169265055437604</v>
+      <c r="M70" s="16">
+        <v>1.186380255878E-4</v>
       </c>
       <c r="N70" s="15" t="s">
         <v>481</v>
@@ -9793,8 +9790,8 @@
       <c r="L71" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="M71" s="17">
-        <v>0.64730128761712502</v>
+      <c r="M71" s="14">
+        <v>1.2847688943159999E-4</v>
       </c>
       <c r="N71" s="13" t="s">
         <v>481</v>
@@ -9831,8 +9828,8 @@
       <c r="L72" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="M72" s="18">
-        <v>0.73652516222678222</v>
+      <c r="M72" s="16">
+        <v>1.456388254166E-4</v>
       </c>
       <c r="N72" s="15" t="s">
         <v>481</v>
@@ -9869,8 +9866,8 @@
       <c r="L73" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="M73" s="17">
-        <v>0.75285262715380374</v>
+      <c r="M73" s="14">
+        <v>1.5089143406190001E-4</v>
       </c>
       <c r="N73" s="13" t="s">
         <v>481</v>
@@ -9907,8 +9904,8 @@
       <c r="L74" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="M74" s="18">
-        <v>0.74347968820484156</v>
+      <c r="M74" s="16">
+        <v>1.4908302833309999E-4</v>
       </c>
       <c r="N74" s="15" t="s">
         <v>481</v>
@@ -9945,8 +9942,8 @@
       <c r="L75" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="M75" s="17">
-        <v>0.67941925166900452</v>
+      <c r="M75" s="14">
+        <v>1.334674538838E-4</v>
       </c>
       <c r="N75" s="13" t="s">
         <v>481</v>
@@ -9983,8 +9980,8 @@
       <c r="L76" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="M76" s="18">
-        <v>0.69941846605861391</v>
+      <c r="M76" s="16">
+        <v>1.3716981125260001E-4</v>
       </c>
       <c r="N76" s="15" t="s">
         <v>481</v>
@@ -10021,8 +10018,8 @@
       <c r="L77" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="M77" s="17">
-        <v>0.7710647181910405</v>
+      <c r="M77" s="14">
+        <v>1.536687417904E-4</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>481</v>
@@ -10059,8 +10056,8 @@
       <c r="L78" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="M78" s="18">
-        <v>0.72739420930654941</v>
+      <c r="M78" s="16">
+        <v>1.4330482198230001E-4</v>
       </c>
       <c r="N78" s="15" t="s">
         <v>481</v>
@@ -10097,8 +10094,8 @@
       <c r="L79" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="M79" s="17">
-        <v>0.60149005845110892</v>
+      <c r="M79" s="14">
+        <v>1.181496877461E-4</v>
       </c>
       <c r="N79" s="13" t="s">
         <v>481</v>
@@ -10135,8 +10132,8 @@
       <c r="L80" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="M80" s="18">
-        <v>0.51524203107055144</v>
+      <c r="M80" s="16">
+        <v>1.00748504866E-4</v>
       </c>
       <c r="N80" s="15" t="s">
         <v>481</v>
@@ -10173,8 +10170,8 @@
       <c r="L81" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="M81" s="17">
-        <v>0.37935325283241261</v>
+      <c r="M81" s="14">
+        <v>7.4274591385245571E-5</v>
       </c>
       <c r="N81" s="13" t="s">
         <v>481</v>
@@ -10211,8 +10208,8 @@
       <c r="L82" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="M82" s="18">
-        <v>0.30458340244589838</v>
+      <c r="M82" s="16">
+        <v>5.9758719632911502E-5</v>
       </c>
       <c r="N82" s="15" t="s">
         <v>481</v>
@@ -10249,8 +10246,8 @@
       <c r="L83" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="M83" s="17">
-        <v>0.25702787844553959</v>
+      <c r="M83" s="14">
+        <v>5.0271304416904729E-5</v>
       </c>
       <c r="N83" s="13" t="s">
         <v>481</v>
@@ -10287,8 +10284,8 @@
       <c r="L84" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="M84" s="18">
-        <v>0.2431451643933292</v>
+      <c r="M84" s="16">
+        <v>4.75882064474169E-5</v>
       </c>
       <c r="N84" s="15" t="s">
         <v>481</v>
@@ -10325,8 +10322,8 @@
       <c r="L85" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="M85" s="17">
-        <v>0.23147289078469149</v>
+      <c r="M85" s="14">
+        <v>4.5393082120769512E-5</v>
       </c>
       <c r="N85" s="13" t="s">
         <v>481</v>
@@ -10363,8 +10360,8 @@
       <c r="L86" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="M86" s="18">
-        <v>0.22782365725443809</v>
+      <c r="M86" s="16">
+        <v>4.4517779497470167E-5</v>
       </c>
       <c r="N86" s="15" t="s">
         <v>481</v>
@@ -10401,8 +10398,8 @@
       <c r="L87" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="M87" s="17">
-        <v>0.19316045592277839</v>
+      <c r="M87" s="14">
+        <v>3.7858152861103477E-5</v>
       </c>
       <c r="N87" s="13" t="s">
         <v>481</v>
@@ -10439,8 +10436,8 @@
       <c r="L88" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="M88" s="18">
-        <v>0.133093921895686</v>
+      <c r="M88" s="16">
+        <v>2.5935431647017989E-5</v>
       </c>
       <c r="N88" s="15" t="s">
         <v>481</v>
@@ -10477,8 +10474,8 @@
       <c r="L89" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="M89" s="17">
-        <v>8.6682513513467396E-2</v>
+      <c r="M89" s="14">
+        <v>1.6846907923636068E-5</v>
       </c>
       <c r="N89" s="13" t="s">
         <v>481</v>
@@ -10515,8 +10512,8 @@
       <c r="L90" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="M90" s="18">
-        <v>7.8789831590512102E-2</v>
+      <c r="M90" s="16">
+        <v>1.5299319326127295E-5</v>
       </c>
       <c r="N90" s="15" t="s">
         <v>481</v>
@@ -10553,8 +10550,8 @@
       <c r="L91" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="M91" s="17">
-        <v>6.0927363763426702E-2</v>
+      <c r="M91" s="14">
+        <v>1.1671800489283324E-5</v>
       </c>
       <c r="N91" s="13" t="s">
         <v>481</v>
@@ -10591,8 +10588,8 @@
       <c r="L92" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="M92" s="18">
-        <v>3.91884398052081E-2</v>
+      <c r="M92" s="16">
+        <v>7.3754374520572201E-6</v>
       </c>
       <c r="N92" s="15" t="s">
         <v>481</v>
@@ -10629,8 +10626,8 @@
       <c r="L93" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="M93" s="17">
-        <v>3.2497100360713203E-2</v>
+      <c r="M93" s="14">
+        <v>6.1544389947006831E-6</v>
       </c>
       <c r="N93" s="13" t="s">
         <v>481</v>
@@ -10667,8 +10664,8 @@
       <c r="L94" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="M94" s="18">
-        <v>3.3637942893759203E-2</v>
+      <c r="M94" s="16">
+        <v>6.3718267214329215E-6</v>
       </c>
       <c r="N94" s="15" t="s">
         <v>481</v>
@@ -10705,8 +10702,8 @@
       <c r="L95" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="M95" s="17">
-        <v>3.2113037010665299E-2</v>
+      <c r="M95" s="14">
+        <v>6.1677360955297357E-6</v>
       </c>
       <c r="N95" s="13" t="s">
         <v>481</v>
@@ -10743,8 +10740,8 @@
       <c r="L96" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="M96" s="18">
-        <v>2.6204461891675902E-2</v>
+      <c r="M96" s="16">
+        <v>4.911705419133097E-6</v>
       </c>
       <c r="N96" s="15" t="s">
         <v>481</v>
@@ -10781,8 +10778,8 @@
       <c r="L97" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="M97" s="17">
-        <v>1.8519462779891201E-2</v>
+      <c r="M97" s="14">
+        <v>2.9127764412671083E-6</v>
       </c>
       <c r="N97" s="13" t="s">
         <v>481</v>
@@ -10819,8 +10816,8 @@
       <c r="L98" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="M98" s="18">
-        <v>7.5513412263684002E-3</v>
+      <c r="M98" s="16">
+        <v>7.2777472916820207E-7</v>
       </c>
       <c r="N98" s="15" t="s">
         <v>481</v>
@@ -10857,7 +10854,7 @@
       <c r="L99" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="M99" s="17">
+      <c r="M99" s="14">
         <v>0</v>
       </c>
       <c r="N99" s="13" t="s">
@@ -10895,7 +10892,7 @@
       <c r="L100" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="M100" s="18">
+      <c r="M100" s="16">
         <v>0</v>
       </c>
       <c r="N100" s="15" t="s">
@@ -10933,7 +10930,7 @@
       <c r="L101" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="M101" s="17">
+      <c r="M101" s="14">
         <v>0</v>
       </c>
       <c r="N101" s="13" t="s">
@@ -10971,8 +10968,8 @@
       <c r="L102" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="M102" s="18">
-        <v>6.3866281534309E-3</v>
+      <c r="M102" s="16">
+        <v>1.2200276888369615E-6</v>
       </c>
       <c r="N102" s="15" t="s">
         <v>481</v>
@@ -11009,8 +11006,8 @@
       <c r="L103" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="M103" s="17">
-        <v>8.0432433704627007E-3</v>
+      <c r="M103" s="14">
+        <v>1.5784002234077702E-6</v>
       </c>
       <c r="N103" s="13" t="s">
         <v>481</v>
@@ -11047,8 +11044,8 @@
       <c r="L104" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="M104" s="18">
-        <v>2.1342469807234799E-2</v>
+      <c r="M104" s="16">
+        <v>3.5885061120390404E-6</v>
       </c>
       <c r="N104" s="15" t="s">
         <v>481</v>
@@ -11085,8 +11082,8 @@
       <c r="L105" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="M105" s="17">
-        <v>2.07988523036894E-2</v>
+      <c r="M105" s="14">
+        <v>3.1104216225439008E-6</v>
       </c>
       <c r="N105" s="13" t="s">
         <v>481</v>
@@ -11123,8 +11120,8 @@
       <c r="L106" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="M106" s="18">
-        <v>3.1938298210645102E-2</v>
+      <c r="M106" s="16">
+        <v>6.0401147155584642E-6</v>
       </c>
       <c r="N106" s="15" t="s">
         <v>481</v>
@@ -11161,8 +11158,8 @@
       <c r="L107" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="M107" s="17">
-        <v>4.1921337523241502E-2</v>
+      <c r="M107" s="14">
+        <v>8.1227261092729427E-6</v>
       </c>
       <c r="N107" s="13" t="s">
         <v>481</v>
@@ -11199,8 +11196,8 @@
       <c r="L108" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="M108" s="18">
-        <v>6.0232859649634797E-2</v>
+      <c r="M108" s="16">
+        <v>1.1755555028894882E-5</v>
       </c>
       <c r="N108" s="15" t="s">
         <v>481</v>
@@ -11237,8 +11234,8 @@
       <c r="L109" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="M109" s="17">
-        <v>8.6109266091279807E-2</v>
+      <c r="M109" s="14">
+        <v>1.6699741153501395E-5</v>
       </c>
       <c r="N109" s="13" t="s">
         <v>481</v>
@@ -11275,8 +11272,8 @@
       <c r="L110" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="M110" s="18">
-        <v>0.107621848080678</v>
+      <c r="M110" s="16">
+        <v>2.1020485644544116E-5</v>
       </c>
       <c r="N110" s="15" t="s">
         <v>481</v>
@@ -11313,8 +11310,8 @@
       <c r="L111" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="M111" s="17">
-        <v>0.17723497120769971</v>
+      <c r="M111" s="14">
+        <v>3.4982762230429651E-5</v>
       </c>
       <c r="N111" s="13" t="s">
         <v>481</v>
@@ -11351,8 +11348,8 @@
       <c r="L112" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="M112" s="18">
-        <v>0.3121468702942608</v>
+      <c r="M112" s="16">
+        <v>6.1529935098663974E-5</v>
       </c>
       <c r="N112" s="15" t="s">
         <v>481</v>
@@ -11389,8 +11386,8 @@
       <c r="L113" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="M113" s="17">
-        <v>0.40020804236569552</v>
+      <c r="M113" s="14">
+        <v>7.894100459205215E-5</v>
       </c>
       <c r="N113" s="13" t="s">
         <v>481</v>
@@ -11427,8 +11424,8 @@
       <c r="L114" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="M114" s="18">
-        <v>0.53958109184749159</v>
+      <c r="M114" s="16">
+        <v>1.064320740015E-4</v>
       </c>
       <c r="N114" s="15" t="s">
         <v>481</v>
@@ -11465,8 +11462,8 @@
       <c r="L115" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="M115" s="17">
-        <v>0.65322537560930605</v>
+      <c r="M115" s="14">
+        <v>1.307968540505E-4</v>
       </c>
       <c r="N115" s="13" t="s">
         <v>481</v>
@@ -11503,8 +11500,8 @@
       <c r="L116" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="M116" s="18">
-        <v>0.64429564687864005</v>
+      <c r="M116" s="16">
+        <v>1.294298718195E-4</v>
       </c>
       <c r="N116" s="15" t="s">
         <v>481</v>
@@ -11541,8 +11538,8 @@
       <c r="L117" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="M117" s="17">
-        <v>0.70480385997579953</v>
+      <c r="M117" s="14">
+        <v>1.4322657632709999E-4</v>
       </c>
       <c r="N117" s="13" t="s">
         <v>481</v>
@@ -11579,8 +11576,8 @@
       <c r="L118" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="M118" s="18">
-        <v>0.83142734038868982</v>
+      <c r="M118" s="16">
+        <v>1.690906561583E-4</v>
       </c>
       <c r="N118" s="15" t="s">
         <v>481</v>
@@ -11617,8 +11614,8 @@
       <c r="L119" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="M119" s="17">
-        <v>0.8453940872607193</v>
+      <c r="M119" s="14">
+        <v>1.713802896701E-4</v>
       </c>
       <c r="N119" s="13" t="s">
         <v>481</v>
@@ -11655,8 +11652,8 @@
       <c r="L120" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="M120" s="18">
-        <v>0.89389737702824446</v>
+      <c r="M120" s="16">
+        <v>1.8108111578120001E-4</v>
       </c>
       <c r="N120" s="15" t="s">
         <v>481</v>
@@ -11693,8 +11690,8 @@
       <c r="L121" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="M121" s="17">
-        <v>0.96901506930458603</v>
+      <c r="M121" s="14">
+        <v>2.057982878498E-4</v>
       </c>
       <c r="N121" s="13" t="s">
         <v>481</v>
@@ -11731,8 +11728,8 @@
       <c r="L122" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="M122" s="18">
-        <v>0.98871285633094463</v>
+      <c r="M122" s="16">
+        <v>2.1236863450140001E-4</v>
       </c>
       <c r="N122" s="15" t="s">
         <v>481</v>
@@ -11769,8 +11766,8 @@
       <c r="L123" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="M123" s="17">
-        <v>0.99499008345903084</v>
+      <c r="M123" s="14">
+        <v>2.142885134741E-4</v>
       </c>
       <c r="N123" s="13" t="s">
         <v>481</v>
@@ -11807,8 +11804,8 @@
       <c r="L124" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="M124" s="18">
-        <v>0.99962889933298682</v>
+      <c r="M124" s="16">
+        <v>2.1860043516519999E-4</v>
       </c>
       <c r="N124" s="15" t="s">
         <v>481</v>
@@ -11845,8 +11842,8 @@
       <c r="L125" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="M125" s="17">
-        <v>0.99936702823533297</v>
+      <c r="M125" s="14">
+        <v>2.2031067343740001E-4</v>
       </c>
       <c r="N125" s="13" t="s">
         <v>481</v>
@@ -11883,8 +11880,8 @@
       <c r="L126" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="M126" s="18">
-        <v>0.99957562015717238</v>
+      <c r="M126" s="16">
+        <v>2.213443191127E-4</v>
       </c>
       <c r="N126" s="15" t="s">
         <v>481</v>
@@ -11921,8 +11918,8 @@
       <c r="L127" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="M127" s="17">
-        <v>0.99982182958845478</v>
+      <c r="M127" s="14">
+        <v>2.2188165245080001E-4</v>
       </c>
       <c r="N127" s="13" t="s">
         <v>481</v>
@@ -11959,8 +11956,8 @@
       <c r="L128" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="M128" s="18">
-        <v>0.99988058864216778</v>
+      <c r="M128" s="16">
+        <v>2.219051028443E-4</v>
       </c>
       <c r="N128" s="15" t="s">
         <v>481</v>
@@ -11997,8 +11994,8 @@
       <c r="L129" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="M129" s="17">
-        <v>0.99985233684604724</v>
+      <c r="M129" s="14">
+        <v>2.2179927863360001E-4</v>
       </c>
       <c r="N129" s="13" t="s">
         <v>481</v>
@@ -12035,8 +12032,8 @@
       <c r="L130" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="M130" s="18">
-        <v>0.99961479934129638</v>
+      <c r="M130" s="16">
+        <v>2.2093436726930001E-4</v>
       </c>
       <c r="N130" s="15" t="s">
         <v>481</v>
@@ -12073,8 +12070,8 @@
       <c r="L131" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="M131" s="17">
-        <v>0.99962416759532158</v>
+      <c r="M131" s="14">
+        <v>2.201155071371E-4</v>
       </c>
       <c r="N131" s="13" t="s">
         <v>481</v>
@@ -12111,8 +12108,8 @@
       <c r="L132" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="M132" s="18">
-        <v>0.99933292281212482</v>
+      <c r="M132" s="16">
+        <v>2.211812741714E-4</v>
       </c>
       <c r="N132" s="15" t="s">
         <v>481</v>
@@ -12149,8 +12146,8 @@
       <c r="L133" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="M133" s="17">
-        <v>0.99884140302728996</v>
+      <c r="M133" s="14">
+        <v>2.2135051031220001E-4</v>
       </c>
       <c r="N133" s="13" t="s">
         <v>481</v>
@@ -12187,8 +12184,8 @@
       <c r="L134" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="M134" s="18">
-        <v>0.99850108303815677</v>
+      <c r="M134" s="16">
+        <v>2.2040770314399999E-4</v>
       </c>
       <c r="N134" s="15" t="s">
         <v>481</v>
@@ -12225,8 +12222,8 @@
       <c r="L135" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="M135" s="17">
-        <v>0.99764049715438285</v>
+      <c r="M135" s="14">
+        <v>2.199971615108E-4</v>
       </c>
       <c r="N135" s="13" t="s">
         <v>481</v>
@@ -12263,8 +12260,8 @@
       <c r="L136" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="M136" s="18">
-        <v>0.99642656575979061</v>
+      <c r="M136" s="16">
+        <v>2.1798108210780001E-4</v>
       </c>
       <c r="N136" s="15" t="s">
         <v>481</v>
@@ -12301,8 +12298,8 @@
       <c r="L137" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="M137" s="17">
-        <v>0.99124913240650403</v>
+      <c r="M137" s="14">
+        <v>2.126303012166E-4</v>
       </c>
       <c r="N137" s="13" t="s">
         <v>481</v>
@@ -12339,8 +12336,8 @@
       <c r="L138" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="M138" s="18">
-        <v>0.90179237968569903</v>
+      <c r="M138" s="16">
+        <v>1.8142010369260001E-4</v>
       </c>
       <c r="N138" s="15" t="s">
         <v>481</v>
@@ -12377,8 +12374,8 @@
       <c r="L139" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="M139" s="17">
-        <v>0.85858742688695222</v>
+      <c r="M139" s="14">
+        <v>1.72370866589E-4</v>
       </c>
       <c r="N139" s="13" t="s">
         <v>481</v>
@@ -12415,8 +12412,8 @@
       <c r="L140" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="M140" s="18">
-        <v>0.82309788428702446</v>
+      <c r="M140" s="16">
+        <v>1.6501523035039999E-4</v>
       </c>
       <c r="N140" s="15" t="s">
         <v>481</v>
@@ -12453,8 +12450,8 @@
       <c r="L141" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="M141" s="17">
-        <v>0.78828950276869436</v>
+      <c r="M141" s="14">
+        <v>1.5822428737519999E-4</v>
       </c>
       <c r="N141" s="13" t="s">
         <v>481</v>
@@ -12491,8 +12488,8 @@
       <c r="L142" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="M142" s="18">
-        <v>0.7341777287318324</v>
+      <c r="M142" s="16">
+        <v>1.4453611915240001E-4</v>
       </c>
       <c r="N142" s="15" t="s">
         <v>481</v>
@@ -12529,8 +12526,8 @@
       <c r="L143" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="M143" s="17">
-        <v>0.70898974288311167</v>
+      <c r="M143" s="14">
+        <v>1.392898517982E-4</v>
       </c>
       <c r="N143" s="13" t="s">
         <v>481</v>
@@ -12567,8 +12564,8 @@
       <c r="L144" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="M144" s="18">
-        <v>0.65394007452225023</v>
+      <c r="M144" s="16">
+        <v>1.2810986339840001E-4</v>
       </c>
       <c r="N144" s="15" t="s">
         <v>481</v>
@@ -12605,8 +12602,8 @@
       <c r="L145" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="M145" s="17">
-        <v>0.58304421649890048</v>
+      <c r="M145" s="14">
+        <v>1.1481646602759999E-4</v>
       </c>
       <c r="N145" s="13" t="s">
         <v>481</v>
@@ -12643,8 +12640,8 @@
       <c r="L146" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="M146" s="18">
-        <v>0.52750454832650684</v>
+      <c r="M146" s="16">
+        <v>1.039285057794E-4</v>
       </c>
       <c r="N146" s="15" t="s">
         <v>481</v>
@@ -12681,8 +12678,8 @@
       <c r="L147" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="M147" s="17">
-        <v>0.51535906461144254</v>
+      <c r="M147" s="14">
+        <v>1.013638212341E-4</v>
       </c>
       <c r="N147" s="13" t="s">
         <v>481</v>
@@ -12719,8 +12716,8 @@
       <c r="L148" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="M148" s="18">
-        <v>0.53876708168496135</v>
+      <c r="M148" s="16">
+        <v>1.059554526081E-4</v>
       </c>
       <c r="N148" s="15" t="s">
         <v>481</v>
@@ -12757,8 +12754,8 @@
       <c r="L149" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="M149" s="17">
-        <v>0.53572914080086709</v>
+      <c r="M149" s="14">
+        <v>1.048519034626E-4</v>
       </c>
       <c r="N149" s="13" t="s">
         <v>481</v>
@@ -12795,8 +12792,8 @@
       <c r="L150" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="M150" s="18">
-        <v>0.3398322218407413</v>
+      <c r="M150" s="16">
+        <v>6.6975284111642282E-5</v>
       </c>
       <c r="N150" s="15" t="s">
         <v>481</v>
@@ -12833,8 +12830,8 @@
       <c r="L151" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="M151" s="17">
-        <v>0.26742391740862281</v>
+      <c r="M151" s="14">
+        <v>5.2329103433079789E-5</v>
       </c>
       <c r="N151" s="13" t="s">
         <v>481</v>
@@ -12871,8 +12868,8 @@
       <c r="L152" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="M152" s="18">
-        <v>0.2396532372492364</v>
+      <c r="M152" s="16">
+        <v>4.6858078626414391E-5</v>
       </c>
       <c r="N152" s="15" t="s">
         <v>481</v>
@@ -12909,8 +12906,8 @@
       <c r="L153" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="M153" s="17">
-        <v>0.2149963177002211</v>
+      <c r="M153" s="14">
+        <v>4.2313859732497148E-5</v>
       </c>
       <c r="N153" s="13" t="s">
         <v>481</v>
@@ -12947,8 +12944,8 @@
       <c r="L154" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="M154" s="18">
-        <v>0.17982460798913649</v>
+      <c r="M154" s="16">
+        <v>3.5175605359819023E-5</v>
       </c>
       <c r="N154" s="15" t="s">
         <v>481</v>
@@ -12985,8 +12982,8 @@
       <c r="L155" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="M155" s="17">
-        <v>0.15112528557967081</v>
+      <c r="M155" s="14">
+        <v>2.926173773090804E-5</v>
       </c>
       <c r="N155" s="13" t="s">
         <v>481</v>
@@ -13023,8 +13020,8 @@
       <c r="L156" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="M156" s="18">
-        <v>0.1245430745728375</v>
+      <c r="M156" s="16">
+        <v>2.4196505163618049E-5</v>
       </c>
       <c r="N156" s="15" t="s">
         <v>481</v>
@@ -13061,8 +13058,8 @@
       <c r="L157" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="M157" s="17">
-        <v>9.8380935142702505E-2</v>
+      <c r="M157" s="14">
+        <v>1.8914099820821556E-5</v>
       </c>
       <c r="N157" s="13" t="s">
         <v>481</v>
@@ -13099,8 +13096,8 @@
       <c r="L158" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="M158" s="18">
-        <v>8.0672975431503896E-2</v>
+      <c r="M158" s="16">
+        <v>1.5223610633722396E-5</v>
       </c>
       <c r="N158" s="15" t="s">
         <v>481</v>
@@ -13137,8 +13134,8 @@
       <c r="L159" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="M159" s="17">
-        <v>6.9661536489075596E-2</v>
+      <c r="M159" s="14">
+        <v>1.32919925920591E-5</v>
       </c>
       <c r="N159" s="13" t="s">
         <v>481</v>
@@ -13175,8 +13172,8 @@
       <c r="L160" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="M160" s="18">
-        <v>6.4642338191489193E-2</v>
+      <c r="M160" s="16">
+        <v>1.2265099487386832E-5</v>
       </c>
       <c r="N160" s="15" t="s">
         <v>481</v>
@@ -13213,8 +13210,8 @@
       <c r="L161" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="M161" s="17">
-        <v>5.2207229049641597E-2</v>
+      <c r="M161" s="14">
+        <v>9.6293231441376034E-6</v>
       </c>
       <c r="N161" s="13" t="s">
         <v>481</v>
@@ -13251,8 +13248,8 @@
       <c r="L162" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="M162" s="18">
-        <v>3.6148991018041601E-2</v>
+      <c r="M162" s="16">
+        <v>6.8066546510964325E-6</v>
       </c>
       <c r="N162" s="15" t="s">
         <v>481</v>
@@ -13289,8 +13286,8 @@
       <c r="L163" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="M163" s="17">
-        <v>2.6366907932655999E-2</v>
+      <c r="M163" s="14">
+        <v>4.7903814279909756E-6</v>
       </c>
       <c r="N163" s="13" t="s">
         <v>481</v>
@@ -13327,8 +13324,8 @@
       <c r="L164" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="M164" s="18">
-        <v>1.9938573796943599E-2</v>
+      <c r="M164" s="16">
+        <v>2.8292815265802107E-6</v>
       </c>
       <c r="N164" s="15" t="s">
         <v>481</v>
@@ -13365,8 +13362,8 @@
       <c r="L165" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="M165" s="17">
-        <v>1.1768619935646299E-2</v>
+      <c r="M165" s="14">
+        <v>2.1413726546010309E-6</v>
       </c>
       <c r="N165" s="13" t="s">
         <v>481</v>
@@ -13403,8 +13400,8 @@
       <c r="L166" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="M166" s="18">
-        <v>9.5632195341589007E-3</v>
+      <c r="M166" s="16">
+        <v>1.7366963114378776E-6</v>
       </c>
       <c r="N166" s="15" t="s">
         <v>481</v>
@@ -13441,8 +13438,8 @@
       <c r="L167" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="M167" s="17">
-        <v>6.4057683080985996E-3</v>
+      <c r="M167" s="14">
+        <v>1.1093523941913488E-6</v>
       </c>
       <c r="N167" s="13" t="s">
         <v>481</v>
@@ -13479,8 +13476,8 @@
       <c r="L168" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="M168" s="18">
-        <v>7.8762329223751992E-3</v>
+      <c r="M168" s="16">
+        <v>1.3808153173501716E-6</v>
       </c>
       <c r="N168" s="15" t="s">
         <v>481</v>
@@ -13517,8 +13514,8 @@
       <c r="L169" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="M169" s="17">
-        <v>9.8605695449041006E-3</v>
+      <c r="M169" s="14">
+        <v>1.8016198694010248E-6</v>
       </c>
       <c r="N169" s="13" t="s">
         <v>481</v>
@@ -13555,8 +13552,8 @@
       <c r="L170" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="M170" s="18">
-        <v>1.26526122222892E-2</v>
+      <c r="M170" s="16">
+        <v>2.2743676910420048E-6</v>
       </c>
       <c r="N170" s="15" t="s">
         <v>481</v>
@@ -13593,8 +13590,8 @@
       <c r="L171" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="M171" s="17">
-        <v>2.5486423536793999E-2</v>
+      <c r="M171" s="14">
+        <v>4.6035914333413458E-6</v>
       </c>
       <c r="N171" s="13" t="s">
         <v>481</v>
@@ -13631,8 +13628,8 @@
       <c r="L172" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="M172" s="18">
-        <v>4.5432374987242598E-2</v>
+      <c r="M172" s="16">
+        <v>8.6184539436380801E-6</v>
       </c>
       <c r="N172" s="15" t="s">
         <v>481</v>
@@ -13669,8 +13666,8 @@
       <c r="L173" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="M173" s="17">
-        <v>5.33955789477744E-2</v>
+      <c r="M173" s="14">
+        <v>1.0223755206018322E-5</v>
       </c>
       <c r="N173" s="13" t="s">
         <v>481</v>
@@ -13707,8 +13704,8 @@
       <c r="L174" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="M174" s="18">
-        <v>1.7944453708633901E-2</v>
+      <c r="M174" s="16">
+        <v>3.169798255487632E-6</v>
       </c>
       <c r="N174" s="15" t="s">
         <v>481</v>
@@ -13745,8 +13742,8 @@
       <c r="L175" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="M175" s="17">
-        <v>1.10911108047127E-2</v>
+      <c r="M175" s="14">
+        <v>1.3943571096877538E-6</v>
       </c>
       <c r="N175" s="13" t="s">
         <v>481</v>
@@ -13783,8 +13780,8 @@
       <c r="L176" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="M176" s="18">
-        <v>1.1067479222188999E-3</v>
+      <c r="M176" s="16">
+        <v>1.8459651998009504E-7</v>
       </c>
       <c r="N176" s="15" t="s">
         <v>481</v>
@@ -13821,8 +13818,8 @@
       <c r="L177" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="M177" s="17">
-        <v>1.0631725664955001E-3</v>
+      <c r="M177" s="14">
+        <v>1.7302681230075346E-7</v>
       </c>
       <c r="N177" s="13" t="s">
         <v>481</v>
@@ -13859,8 +13856,8 @@
       <c r="L178" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="M178" s="18">
-        <v>7.2477562669923E-3</v>
+      <c r="M178" s="16">
+        <v>1.2360795414613089E-6</v>
       </c>
       <c r="N178" s="15" t="s">
         <v>481</v>
@@ -13897,8 +13894,8 @@
       <c r="L179" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="M179" s="17">
-        <v>1.33597649839535E-2</v>
+      <c r="M179" s="14">
+        <v>1.7413108919003126E-6</v>
       </c>
       <c r="N179" s="13" t="s">
         <v>481</v>
@@ -13935,8 +13932,8 @@
       <c r="L180" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="M180" s="18">
-        <v>2.8082240434668199E-2</v>
+      <c r="M180" s="16">
+        <v>5.1424026886565019E-6</v>
       </c>
       <c r="N180" s="15" t="s">
         <v>481</v>
@@ -13973,8 +13970,8 @@
       <c r="L181" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="M181" s="17">
-        <v>5.6735710340227202E-2</v>
+      <c r="M181" s="14">
+        <v>1.0677621874271054E-5</v>
       </c>
       <c r="N181" s="13" t="s">
         <v>481</v>
@@ -14011,8 +14008,8 @@
       <c r="L182" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="M182" s="18">
-        <v>8.1104765448739E-2</v>
+      <c r="M182" s="16">
+        <v>1.5581244753374555E-5</v>
       </c>
       <c r="N182" s="15" t="s">
         <v>481</v>
@@ -14049,8 +14046,8 @@
       <c r="L183" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="M183" s="17">
-        <v>9.1199330467871195E-2</v>
+      <c r="M183" s="14">
+        <v>1.7308568238618497E-5</v>
       </c>
       <c r="N183" s="13" t="s">
         <v>481</v>
@@ -14087,8 +14084,8 @@
       <c r="L184" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="M184" s="18">
-        <v>8.4002387264757006E-2</v>
+      <c r="M184" s="16">
+        <v>1.6053529456607033E-5</v>
       </c>
       <c r="N184" s="15" t="s">
         <v>481</v>
@@ -14125,8 +14122,8 @@
       <c r="L185" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="M185" s="17">
-        <v>7.8584984573156602E-2</v>
+      <c r="M185" s="14">
+        <v>1.5059165056482107E-5</v>
       </c>
       <c r="N185" s="13" t="s">
         <v>481</v>
@@ -14163,8 +14160,8 @@
       <c r="L186" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="M186" s="18">
-        <v>7.51638568691846E-2</v>
+      <c r="M186" s="16">
+        <v>1.4678919239378566E-5</v>
       </c>
       <c r="N186" s="15" t="s">
         <v>481</v>
@@ -14201,8 +14198,8 @@
       <c r="L187" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="M187" s="17">
-        <v>6.27044385989321E-2</v>
+      <c r="M187" s="14">
+        <v>1.2076391975118045E-5</v>
       </c>
       <c r="N187" s="13" t="s">
         <v>481</v>
@@ -14239,8 +14236,8 @@
       <c r="L188" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="M188" s="18">
-        <v>4.0997137740250801E-2</v>
+      <c r="M188" s="16">
+        <v>7.6854436248071047E-6</v>
       </c>
       <c r="N188" s="15" t="s">
         <v>481</v>
@@ -14277,8 +14274,8 @@
       <c r="L189" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="M189" s="17">
-        <v>2.9768579070969799E-2</v>
+      <c r="M189" s="14">
+        <v>5.6402304461845349E-6</v>
       </c>
       <c r="N189" s="13" t="s">
         <v>481</v>
@@ -14315,8 +14312,8 @@
       <c r="L190" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="M190" s="18">
-        <v>3.4051859854321999E-2</v>
+      <c r="M190" s="16">
+        <v>6.4668772901883491E-6</v>
       </c>
       <c r="N190" s="15" t="s">
         <v>481</v>
@@ -14353,8 +14350,8 @@
       <c r="L191" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="M191" s="17">
-        <v>3.1969723184207502E-2</v>
+      <c r="M191" s="14">
+        <v>6.0011018111364586E-6</v>
       </c>
       <c r="N191" s="13" t="s">
         <v>481</v>
@@ -14391,8 +14388,8 @@
       <c r="L192" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M192" s="18">
-        <v>1.91161903773245E-2</v>
+      <c r="M192" s="16">
+        <v>3.1718993412286982E-6</v>
       </c>
       <c r="N192" s="15" t="s">
         <v>481</v>
@@ -14429,8 +14426,8 @@
       <c r="L193" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="M193" s="17">
-        <v>3.7911389543551E-3</v>
+      <c r="M193" s="14">
+        <v>0</v>
       </c>
       <c r="N193" s="13" t="s">
         <v>481</v>
@@ -14467,7 +14464,7 @@
       <c r="L194" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="M194" s="18">
+      <c r="M194" s="16">
         <v>0</v>
       </c>
       <c r="N194" s="15" t="s">
@@ -14505,7 +14502,7 @@
       <c r="L195" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="M195" s="17">
+      <c r="M195" s="14">
         <v>0</v>
       </c>
       <c r="N195" s="13" t="s">
@@ -14543,7 +14540,7 @@
       <c r="L196" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="M196" s="18">
+      <c r="M196" s="16">
         <v>0</v>
       </c>
       <c r="N196" s="15" t="s">
@@ -14581,7 +14578,7 @@
       <c r="L197" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="M197" s="17">
+      <c r="M197" s="14">
         <v>0</v>
       </c>
       <c r="N197" s="13" t="s">
@@ -14619,7 +14616,7 @@
       <c r="L198" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="M198" s="18">
+      <c r="M198" s="16">
         <v>0</v>
       </c>
       <c r="N198" s="15" t="s">
@@ -14657,7 +14654,7 @@
       <c r="L199" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="M199" s="17">
+      <c r="M199" s="14">
         <v>0</v>
       </c>
       <c r="N199" s="13" t="s">
@@ -14695,7 +14692,7 @@
       <c r="L200" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="M200" s="18">
+      <c r="M200" s="16">
         <v>0</v>
       </c>
       <c r="N200" s="15" t="s">
@@ -14733,7 +14730,7 @@
       <c r="L201" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="M201" s="17">
+      <c r="M201" s="14">
         <v>0</v>
       </c>
       <c r="N201" s="13" t="s">
@@ -14771,7 +14768,7 @@
       <c r="L202" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="M202" s="18">
+      <c r="M202" s="16">
         <v>0</v>
       </c>
       <c r="N202" s="15" t="s">
@@ -14809,7 +14806,7 @@
       <c r="L203" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="M203" s="17">
+      <c r="M203" s="14">
         <v>0</v>
       </c>
       <c r="N203" s="13" t="s">
@@ -14847,7 +14844,7 @@
       <c r="L204" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="M204" s="18">
+      <c r="M204" s="16">
         <v>0</v>
       </c>
       <c r="N204" s="15" t="s">
@@ -14885,7 +14882,7 @@
       <c r="L205" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="M205" s="17">
+      <c r="M205" s="14">
         <v>0</v>
       </c>
       <c r="N205" s="13" t="s">
@@ -14923,7 +14920,7 @@
       <c r="L206" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="M206" s="18">
+      <c r="M206" s="16">
         <v>0</v>
       </c>
       <c r="N206" s="15" t="s">
@@ -14961,8 +14958,8 @@
       <c r="L207" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="M207" s="17">
-        <v>4.0488611228830153E-5</v>
+      <c r="M207" s="14">
+        <v>5.9830704470064803E-9</v>
       </c>
       <c r="N207" s="13" t="s">
         <v>481</v>
@@ -14999,8 +14996,8 @@
       <c r="L208" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="M208" s="18">
-        <v>5.197297344862057E-5</v>
+      <c r="M208" s="16">
+        <v>8.2842672094377163E-9</v>
       </c>
       <c r="N208" s="15" t="s">
         <v>481</v>
@@ -15037,8 +15034,8 @@
       <c r="L209" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="M209" s="17">
-        <v>3.2165149926521686E-5</v>
+      <c r="M209" s="14">
+        <v>0</v>
       </c>
       <c r="N209" s="13" t="s">
         <v>481</v>
@@ -15075,8 +15072,8 @@
       <c r="L210" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="M210" s="18">
-        <v>5.6449096596689023E-5</v>
+      <c r="M210" s="16">
+        <v>9.180972147371511E-9</v>
       </c>
       <c r="N210" s="15" t="s">
         <v>481</v>
@@ -15113,7 +15110,7 @@
       <c r="L211" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="M211" s="17">
+      <c r="M211" s="14">
         <v>0</v>
       </c>
       <c r="N211" s="13" t="s">
@@ -15151,7 +15148,7 @@
       <c r="L212" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="M212" s="18">
+      <c r="M212" s="16">
         <v>0</v>
       </c>
       <c r="N212" s="15" t="s">
@@ -15189,7 +15186,7 @@
       <c r="L213" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="M213" s="17">
+      <c r="M213" s="14">
         <v>0</v>
       </c>
       <c r="N213" s="13" t="s">
@@ -15227,8 +15224,8 @@
       <c r="L214" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="M214" s="18">
-        <v>2.2089890549584E-3</v>
+      <c r="M214" s="16">
+        <v>5.1042584008755229E-9</v>
       </c>
       <c r="N214" s="15" t="s">
         <v>481</v>
@@ -15265,8 +15262,8 @@
       <c r="L215" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="M215" s="17">
-        <v>2.8373637821847999E-3</v>
+      <c r="M215" s="14">
+        <v>3.9732916009135652E-7</v>
       </c>
       <c r="N215" s="13" t="s">
         <v>481</v>
@@ -15303,7 +15300,7 @@
       <c r="L216" s="15" t="s">
         <v>687</v>
       </c>
-      <c r="M216" s="18">
+      <c r="M216" s="16">
         <v>0</v>
       </c>
       <c r="N216" s="15" t="s">
@@ -15341,8 +15338,8 @@
       <c r="L217" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="M217" s="17">
-        <v>2.4073396482908998E-3</v>
+      <c r="M217" s="14">
+        <v>0</v>
       </c>
       <c r="N217" s="13" t="s">
         <v>481</v>
@@ -15379,8 +15376,8 @@
       <c r="L218" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="M218" s="18">
-        <v>5.1036606821807003E-3</v>
+      <c r="M218" s="16">
+        <v>8.6787066523130901E-7</v>
       </c>
       <c r="N218" s="15" t="s">
         <v>481</v>
@@ -15417,8 +15414,8 @@
       <c r="L219" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="M219" s="17">
-        <v>8.5469192124340999E-3</v>
+      <c r="M219" s="14">
+        <v>1.5476690808562951E-6</v>
       </c>
       <c r="N219" s="13" t="s">
         <v>481</v>
@@ -15455,8 +15452,8 @@
       <c r="L220" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="M220" s="18">
-        <v>1.3877033073923E-2</v>
+      <c r="M220" s="16">
+        <v>2.4881534337196308E-6</v>
       </c>
       <c r="N220" s="15" t="s">
         <v>481</v>
@@ -15493,8 +15490,8 @@
       <c r="L221" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="M221" s="17">
-        <v>2.2940520707362098E-2</v>
+      <c r="M221" s="14">
+        <v>4.3591273515163184E-6</v>
       </c>
       <c r="N221" s="13" t="s">
         <v>481</v>
@@ -15531,8 +15528,8 @@
       <c r="L222" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="M222" s="18">
-        <v>5.8914923868801199E-2</v>
+      <c r="M222" s="16">
+        <v>1.12234028064835E-5</v>
       </c>
       <c r="N222" s="15" t="s">
         <v>481</v>
@@ -15569,8 +15566,8 @@
       <c r="L223" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="M223" s="17">
-        <v>0.1009661008632016</v>
+      <c r="M223" s="14">
+        <v>1.9409521296319289E-5</v>
       </c>
       <c r="N223" s="13" t="s">
         <v>481</v>
@@ -15607,8 +15604,8 @@
       <c r="L224" s="15" t="s">
         <v>695</v>
       </c>
-      <c r="M224" s="18">
-        <v>0.1313731132022169</v>
+      <c r="M224" s="16">
+        <v>2.5609138627765637E-5</v>
       </c>
       <c r="N224" s="15" t="s">
         <v>481</v>
@@ -15645,8 +15642,8 @@
       <c r="L225" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="M225" s="17">
-        <v>0.2046943071099899</v>
+      <c r="M225" s="14">
+        <v>3.9884539403636238E-5</v>
       </c>
       <c r="N225" s="13" t="s">
         <v>481</v>
@@ -15683,8 +15680,8 @@
       <c r="L226" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="M226" s="18">
-        <v>0.26197276702377181</v>
+      <c r="M226" s="16">
+        <v>5.098927732567849E-5</v>
       </c>
       <c r="N226" s="15" t="s">
         <v>481</v>
@@ -15721,8 +15718,8 @@
       <c r="L227" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="M227" s="17">
-        <v>0.29559255519149569</v>
+      <c r="M227" s="14">
+        <v>5.7709456204608845E-5</v>
       </c>
       <c r="N227" s="13" t="s">
         <v>481</v>
@@ -15759,8 +15756,8 @@
       <c r="L228" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="M228" s="18">
-        <v>0.3570911199243309</v>
+      <c r="M228" s="16">
+        <v>6.9693836337872205E-5</v>
       </c>
       <c r="N228" s="15" t="s">
         <v>481</v>
@@ -15797,8 +15794,8 @@
       <c r="L229" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="M229" s="17">
-        <v>0.42532571048710471</v>
+      <c r="M229" s="14">
+        <v>8.3176937312851105E-5</v>
       </c>
       <c r="N229" s="13" t="s">
         <v>481</v>
@@ -15835,8 +15832,8 @@
       <c r="L230" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="M230" s="18">
-        <v>0.48112155680184759</v>
+      <c r="M230" s="16">
+        <v>9.3829009624227846E-5</v>
       </c>
       <c r="N230" s="15" t="s">
         <v>481</v>
@@ -15873,8 +15870,8 @@
       <c r="L231" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="M231" s="17">
-        <v>0.50865262732073835</v>
+      <c r="M231" s="14">
+        <v>9.9509775781428679E-5</v>
       </c>
       <c r="N231" s="13" t="s">
         <v>481</v>
@@ -15911,8 +15908,8 @@
       <c r="L232" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="M232" s="18">
-        <v>0.593281926255665</v>
+      <c r="M232" s="16">
+        <v>1.164072286483E-4</v>
       </c>
       <c r="N232" s="15" t="s">
         <v>481</v>
@@ -15949,8 +15946,8 @@
       <c r="L233" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="M233" s="17">
-        <v>0.73302246229149615</v>
+      <c r="M233" s="14">
+        <v>1.454417001554E-4</v>
       </c>
       <c r="N233" s="13" t="s">
         <v>481</v>
@@ -15987,8 +15984,8 @@
       <c r="L234" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="M234" s="18">
-        <v>0.86223487847383651</v>
+      <c r="M234" s="16">
+        <v>1.7478487873089999E-4</v>
       </c>
       <c r="N234" s="15" t="s">
         <v>481</v>
@@ -16025,8 +16022,8 @@
       <c r="L235" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="M235" s="17">
-        <v>0.9383197440959834</v>
+      <c r="M235" s="14">
+        <v>1.9707087604919999E-4</v>
       </c>
       <c r="N235" s="13" t="s">
         <v>481</v>
@@ -16063,8 +16060,8 @@
       <c r="L236" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="M236" s="18">
-        <v>247.12766700802726</v>
+      <c r="M236" s="16">
+        <v>5.0914177778469551E-2</v>
       </c>
       <c r="N236" s="15" t="s">
         <v>481</v>
@@ -16101,8 +16098,8 @@
       <c r="L237" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="M237" s="17">
-        <v>34.217575534918673</v>
+      <c r="M237" s="14">
+        <v>6.9864093416431277E-3</v>
       </c>
       <c r="N237" s="13" t="s">
         <v>481</v>
@@ -16139,8 +16136,8 @@
       <c r="L238" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="M238" s="18">
-        <v>35.026594954223754</v>
+      <c r="M238" s="16">
+        <v>7.1535854231870788E-3</v>
       </c>
       <c r="N238" s="15" t="s">
         <v>481</v>
@@ -16177,8 +16174,8 @@
       <c r="L239" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="M239" s="17">
-        <v>35.838933627660225</v>
+      <c r="M239" s="14">
+        <v>7.3433717912017088E-3</v>
       </c>
       <c r="N239" s="13" t="s">
         <v>481</v>
@@ -16215,8 +16212,8 @@
       <c r="L240" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="M240" s="18">
-        <v>34.295145382399063</v>
+      <c r="M240" s="16">
+        <v>7.0104579725641762E-3</v>
       </c>
       <c r="N240" s="15" t="s">
         <v>481</v>
@@ -16253,8 +16250,8 @@
       <c r="L241" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="M241" s="17">
-        <v>190.04635361060565</v>
+      <c r="M241" s="14">
+        <v>3.8797279670057527E-2</v>
       </c>
       <c r="N241" s="13" t="s">
         <v>481</v>
@@ -16291,8 +16288,8 @@
       <c r="L242" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="M242" s="18">
-        <v>77.850725227547528</v>
+      <c r="M242" s="16">
+        <v>1.6040735181819282E-2</v>
       </c>
       <c r="N242" s="15" t="s">
         <v>481</v>
@@ -16329,8 +16326,8 @@
       <c r="L243" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="M243" s="17">
-        <v>38.658922237918532</v>
+      <c r="M243" s="14">
+        <v>7.9459124197177097E-3</v>
       </c>
       <c r="N243" s="13" t="s">
         <v>481</v>
@@ -16367,8 +16364,8 @@
       <c r="L244" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="M244" s="18">
-        <v>188.24334910855828</v>
+      <c r="M244" s="16">
+        <v>3.8608133260789011E-2</v>
       </c>
       <c r="N244" s="15" t="s">
         <v>481</v>
@@ -16405,8 +16402,8 @@
       <c r="L245" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="M245" s="17">
-        <v>253.01297624122071</v>
+      <c r="M245" s="14">
+        <v>5.3696330086524829E-2</v>
       </c>
       <c r="N245" s="13" t="s">
         <v>481</v>
@@ -16443,8 +16440,8 @@
       <c r="L246" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="M246" s="18">
-        <v>35.21997714517736</v>
+      <c r="M246" s="16">
+        <v>7.4872393085671281E-3</v>
       </c>
       <c r="N246" s="15" t="s">
         <v>481</v>
@@ -16481,8 +16478,8 @@
       <c r="L247" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="M247" s="17">
-        <v>35.59224594824385</v>
+      <c r="M247" s="14">
+        <v>7.5615468003261653E-3</v>
       </c>
       <c r="N247" s="13" t="s">
         <v>481</v>
@@ -16519,8 +16516,8 @@
       <c r="L248" s="15" t="s">
         <v>719</v>
       </c>
-      <c r="M248" s="18">
-        <v>35.645345659743789</v>
+      <c r="M248" s="16">
+        <v>7.5821329262707243E-3</v>
       </c>
       <c r="N248" s="15" t="s">
         <v>481</v>
@@ -16557,8 +16554,8 @@
       <c r="L249" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="M249" s="17">
-        <v>34.308489179360407</v>
+      <c r="M249" s="14">
+        <v>7.3114952130505784E-3</v>
       </c>
       <c r="N249" s="13" t="s">
         <v>481</v>
@@ -16595,8 +16592,8 @@
       <c r="L250" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="M250" s="18">
-        <v>169.65707257107204</v>
+      <c r="M250" s="16">
+        <v>3.6079611472717696E-2</v>
       </c>
       <c r="N250" s="15" t="s">
         <v>481</v>
@@ -16633,8 +16630,8 @@
       <c r="L251" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="M251" s="17">
-        <v>71.347051332772878</v>
+      <c r="M251" s="14">
+        <v>1.5156143425926675E-2</v>
       </c>
       <c r="N251" s="13" t="s">
         <v>481</v>
@@ -16671,8 +16668,8 @@
       <c r="L252" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="M252" s="18">
-        <v>36.169697155669752</v>
+      <c r="M252" s="16">
+        <v>7.6395962058887091E-3</v>
       </c>
       <c r="N252" s="15" t="s">
         <v>481</v>
@@ -16709,8 +16706,8 @@
       <c r="L253" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="M253" s="17">
-        <v>180.58313497710446</v>
+      <c r="M253" s="14">
+        <v>3.8215796169207401E-2</v>
       </c>
       <c r="N253" s="13" t="s">
         <v>481</v>
@@ -16747,8 +16744,8 @@
       <c r="L254" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="M254" s="18">
-        <v>0.99998701480050278</v>
+      <c r="M254" s="16">
+        <v>2.2192904935319999E-4</v>
       </c>
       <c r="N254" s="15" t="s">
         <v>481</v>
@@ -16785,8 +16782,8 @@
       <c r="L255" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="M255" s="17">
-        <v>0.99998333198240641</v>
+      <c r="M255" s="14">
+        <v>2.2193819440469999E-4</v>
       </c>
       <c r="N255" s="13" t="s">
         <v>481</v>
@@ -16823,8 +16820,8 @@
       <c r="L256" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="M256" s="18">
-        <v>0.99994607706903105</v>
+      <c r="M256" s="16">
+        <v>2.2190033124E-4</v>
       </c>
       <c r="N256" s="15" t="s">
         <v>481</v>
@@ -16861,8 +16858,8 @@
       <c r="L257" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="M257" s="17">
-        <v>0.99993422905987817</v>
+      <c r="M257" s="14">
+        <v>2.2185434343919999E-4</v>
       </c>
       <c r="N257" s="13" t="s">
         <v>481</v>
@@ -16899,8 +16896,8 @@
       <c r="L258" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="M258" s="18">
-        <v>0.9998792256863388</v>
+      <c r="M258" s="16">
+        <v>2.217713388865E-4</v>
       </c>
       <c r="N258" s="15" t="s">
         <v>481</v>
@@ -16937,8 +16934,8 @@
       <c r="L259" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="M259" s="17">
-        <v>0.99984658682453764</v>
+      <c r="M259" s="14">
+        <v>2.2169409556960001E-4</v>
       </c>
       <c r="N259" s="13" t="s">
         <v>481</v>
@@ -16975,8 +16972,8 @@
       <c r="L260" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="M260" s="18">
-        <v>0.99915165613130041</v>
+      <c r="M260" s="16">
+        <v>2.214540819429E-4</v>
       </c>
       <c r="N260" s="15" t="s">
         <v>481</v>
@@ -17013,8 +17010,8 @@
       <c r="L261" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="M261" s="17">
-        <v>0.99873980374363835</v>
+      <c r="M261" s="14">
+        <v>2.2128612631539999E-4</v>
       </c>
       <c r="N261" s="13" t="s">
         <v>481</v>
@@ -17051,8 +17048,8 @@
       <c r="L262" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="M262" s="18">
-        <v>0.99850813579378661</v>
+      <c r="M262" s="16">
+        <v>2.212091259065E-4</v>
       </c>
       <c r="N262" s="15" t="s">
         <v>481</v>
@@ -17089,8 +17086,8 @@
       <c r="L263" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="M263" s="17">
-        <v>0.93115955141837037</v>
+      <c r="M263" s="14">
+        <v>2.049579542363E-4</v>
       </c>
       <c r="N263" s="13" t="s">
         <v>481</v>
@@ -17127,8 +17124,8 @@
       <c r="L264" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="M264" s="18">
-        <v>0.83414290307555028</v>
+      <c r="M264" s="16">
+        <v>1.7719044351949999E-4</v>
       </c>
       <c r="N264" s="15" t="s">
         <v>481</v>
@@ -17165,8 +17162,8 @@
       <c r="L265" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="M265" s="17">
-        <v>0.60755283666814541</v>
+      <c r="M265" s="14">
+        <v>1.2492744756720001E-4</v>
       </c>
       <c r="N265" s="13" t="s">
         <v>481</v>
@@ -17203,8 +17200,8 @@
       <c r="L266" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="M266" s="18">
-        <v>0.3308723855161399</v>
+      <c r="M266" s="16">
+        <v>6.4434857700214197E-5</v>
       </c>
       <c r="N266" s="15" t="s">
         <v>481</v>
@@ -17241,8 +17238,8 @@
       <c r="L267" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="M267" s="17">
-        <v>0.2244199493818845</v>
+      <c r="M267" s="14">
+        <v>4.3916582345023851E-5</v>
       </c>
       <c r="N267" s="13" t="s">
         <v>481</v>
@@ -17279,8 +17276,8 @@
       <c r="L268" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="M268" s="18">
-        <v>0.21043139533127769</v>
+      <c r="M268" s="16">
+        <v>4.1449757209819859E-5</v>
       </c>
       <c r="N268" s="15" t="s">
         <v>481</v>
@@ -17317,8 +17314,8 @@
       <c r="L269" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="M269" s="17">
-        <v>0.31506449144239551</v>
+      <c r="M269" s="14">
+        <v>6.1853300776847336E-5</v>
       </c>
       <c r="N269" s="13" t="s">
         <v>481</v>
@@ -17355,8 +17352,8 @@
       <c r="L270" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="M270" s="18">
-        <v>0.45579960666029001</v>
+      <c r="M270" s="16">
+        <v>8.9790272419360459E-5</v>
       </c>
       <c r="N270" s="15" t="s">
         <v>481</v>
@@ -17393,8 +17390,8 @@
       <c r="L271" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="M271" s="17">
-        <v>0.50035985210408385</v>
+      <c r="M271" s="14">
+        <v>9.816914362284524E-5</v>
       </c>
       <c r="N271" s="13" t="s">
         <v>481</v>
@@ -17431,8 +17428,8 @@
       <c r="L272" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="M272" s="18">
-        <v>0.49987418008586232</v>
+      <c r="M272" s="16">
+        <v>9.8249744761763099E-5</v>
       </c>
       <c r="N272" s="15" t="s">
         <v>481</v>
@@ -17469,8 +17466,8 @@
       <c r="L273" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="M273" s="17">
-        <v>0.66371610932592862</v>
+      <c r="M273" s="14">
+        <v>1.3215161157059999E-4</v>
       </c>
       <c r="N273" s="13" t="s">
         <v>481</v>
@@ -17507,8 +17504,8 @@
       <c r="L274" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="M274" s="18">
-        <v>0.88824033092265064</v>
+      <c r="M274" s="16">
+        <v>1.7903083112009999E-4</v>
       </c>
       <c r="N274" s="15" t="s">
         <v>481</v>
@@ -17545,8 +17542,8 @@
       <c r="L275" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="M275" s="17">
-        <v>0.92679138455683918</v>
+      <c r="M275" s="14">
+        <v>1.8815860665810001E-4</v>
       </c>
       <c r="N275" s="13" t="s">
         <v>481</v>
@@ -17583,8 +17580,8 @@
       <c r="L276" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="M276" s="18">
-        <v>0.94641015175862619</v>
+      <c r="M276" s="16">
+        <v>1.9509465451770001E-4</v>
       </c>
       <c r="N276" s="15" t="s">
         <v>481</v>
@@ -17621,8 +17618,8 @@
       <c r="L277" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="M277" s="17">
-        <v>0.94512412538408719</v>
+      <c r="M277" s="14">
+        <v>1.9547140786780001E-4</v>
       </c>
       <c r="N277" s="13" t="s">
         <v>481</v>
@@ -17659,8 +17656,8 @@
       <c r="L278" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="M278" s="18">
-        <v>0.97378436337015239</v>
+      <c r="M278" s="16">
+        <v>2.0793568104749999E-4</v>
       </c>
       <c r="N278" s="15" t="s">
         <v>481</v>
@@ -17697,8 +17694,8 @@
       <c r="L279" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="M279" s="17">
-        <v>0.95276433515439818</v>
+      <c r="M279" s="14">
+        <v>1.976653425887E-4</v>
       </c>
       <c r="N279" s="13" t="s">
         <v>481</v>
@@ -17735,8 +17732,8 @@
       <c r="L280" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="M280" s="18">
-        <v>0.98080449852976959</v>
+      <c r="M280" s="16">
+        <v>2.132798203561E-4</v>
       </c>
       <c r="N280" s="15" t="s">
         <v>481</v>
@@ -17773,8 +17770,8 @@
       <c r="L281" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="M281" s="17">
-        <v>0.98292549371060745</v>
+      <c r="M281" s="14">
+        <v>2.136819851297E-4</v>
       </c>
       <c r="N281" s="13" t="s">
         <v>481</v>
@@ -17811,8 +17808,8 @@
       <c r="L282" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="M282" s="18">
-        <v>0.98068995377580781</v>
+      <c r="M282" s="16">
+        <v>2.118408146325E-4</v>
       </c>
       <c r="N282" s="15" t="s">
         <v>481</v>
@@ -17849,8 +17846,8 @@
       <c r="L283" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="M283" s="17">
-        <v>0.96931439352533</v>
+      <c r="M283" s="14">
+        <v>2.0629008653300001E-4</v>
       </c>
       <c r="N283" s="13" t="s">
         <v>481</v>
@@ -17887,8 +17884,8 @@
       <c r="L284" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="M284" s="18">
-        <v>0.91776591889529502</v>
+      <c r="M284" s="16">
+        <v>1.8834914751369999E-4</v>
       </c>
       <c r="N284" s="15" t="s">
         <v>481</v>
@@ -17925,8 +17922,8 @@
       <c r="L285" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="M285" s="17">
-        <v>0.86869024173385267</v>
+      <c r="M285" s="14">
+        <v>1.7594178319060001E-4</v>
       </c>
       <c r="N285" s="13" t="s">
         <v>481</v>
@@ -17963,8 +17960,8 @@
       <c r="L286" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="M286" s="18">
-        <v>0.81550420873471885</v>
+      <c r="M286" s="16">
+        <v>1.6295541394959999E-4</v>
       </c>
       <c r="N286" s="15" t="s">
         <v>481</v>
@@ -18001,8 +17998,8 @@
       <c r="L287" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="M287" s="17">
-        <v>0.73213997250875429</v>
+      <c r="M287" s="14">
+        <v>1.4450598746580001E-4</v>
       </c>
       <c r="N287" s="13" t="s">
         <v>481</v>
@@ -18039,8 +18036,8 @@
       <c r="L288" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="M288" s="18">
-        <v>0.5658748575733773</v>
+      <c r="M288" s="16">
+        <v>1.113666340849E-4</v>
       </c>
       <c r="N288" s="15" t="s">
         <v>481</v>
@@ -18077,8 +18074,8 @@
       <c r="L289" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="M289" s="17">
-        <v>0.50972769818999053</v>
+      <c r="M289" s="14">
+        <v>9.9675030379130686E-5</v>
       </c>
       <c r="N289" s="13" t="s">
         <v>481</v>
@@ -18115,8 +18112,8 @@
       <c r="L290" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="M290" s="18">
-        <v>0.65362184682911151</v>
+      <c r="M290" s="16">
+        <v>1.275458260767E-4</v>
       </c>
       <c r="N290" s="15" t="s">
         <v>481</v>
@@ -18153,8 +18150,8 @@
       <c r="L291" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="M291" s="17">
-        <v>0.72787032798703821</v>
+      <c r="M291" s="14">
+        <v>1.4306226032089999E-4</v>
       </c>
       <c r="N291" s="13" t="s">
         <v>481</v>
@@ -18191,8 +18188,8 @@
       <c r="L292" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="M292" s="18">
-        <v>0.74143996363801568</v>
+      <c r="M292" s="16">
+        <v>1.4610999554379999E-4</v>
       </c>
       <c r="N292" s="15" t="s">
         <v>481</v>
@@ -18229,8 +18226,8 @@
       <c r="L293" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="M293" s="17">
-        <v>0.69027635528819276</v>
+      <c r="M293" s="14">
+        <v>1.3511586615669999E-4</v>
       </c>
       <c r="N293" s="13" t="s">
         <v>481</v>
@@ -18267,8 +18264,8 @@
       <c r="L294" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="M294" s="18">
-        <v>0.60083814530030644</v>
+      <c r="M294" s="16">
+        <v>1.176591689938E-4</v>
       </c>
       <c r="N294" s="15" t="s">
         <v>481</v>
@@ -18305,8 +18302,8 @@
       <c r="L295" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="M295" s="17">
-        <v>0.53588050807271304</v>
+      <c r="M295" s="14">
+        <v>1.0500282943899999E-4</v>
       </c>
       <c r="N295" s="13" t="s">
         <v>481</v>
@@ -18343,8 +18340,8 @@
       <c r="L296" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="M296" s="18">
-        <v>0.49670059123820098</v>
+      <c r="M296" s="16">
+        <v>9.7532469676939906E-5</v>
       </c>
       <c r="N296" s="15" t="s">
         <v>481</v>
@@ -18381,8 +18378,8 @@
       <c r="L297" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="M297" s="17">
-        <v>0.46515384098248891</v>
+      <c r="M297" s="14">
+        <v>9.1195254957791394E-5</v>
       </c>
       <c r="N297" s="13" t="s">
         <v>481</v>
@@ -18419,8 +18416,8 @@
       <c r="L298" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="M298" s="18">
-        <v>0.3899825884272709</v>
+      <c r="M298" s="16">
+        <v>7.7029624617301021E-5</v>
       </c>
       <c r="N298" s="15" t="s">
         <v>481</v>
@@ -18457,8 +18454,8 @@
       <c r="L299" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="M299" s="17">
-        <v>0.42237067674574919</v>
+      <c r="M299" s="14">
+        <v>8.3018294864596793E-5</v>
       </c>
       <c r="N299" s="13" t="s">
         <v>481</v>
@@ -18495,8 +18492,8 @@
       <c r="L300" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="M300" s="18">
-        <v>0.66157166652036448</v>
+      <c r="M300" s="16">
+        <v>1.3015409890559999E-4</v>
       </c>
       <c r="N300" s="15" t="s">
         <v>481</v>
@@ -18533,8 +18530,8 @@
       <c r="L301" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="M301" s="17">
-        <v>0.84359778493230142</v>
+      <c r="M301" s="14">
+        <v>1.6937838474690001E-4</v>
       </c>
       <c r="N301" s="13" t="s">
         <v>481</v>
@@ -18571,8 +18568,8 @@
       <c r="L302" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="M302" s="18">
-        <v>0.96445175549748963</v>
+      <c r="M302" s="16">
+        <v>2.0338388278960001E-4</v>
       </c>
       <c r="N302" s="15" t="s">
         <v>481</v>
@@ -18609,8 +18606,8 @@
       <c r="L303" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="M303" s="17">
-        <v>0.99146434613647016</v>
+      <c r="M303" s="14">
+        <v>2.1270801111770001E-4</v>
       </c>
       <c r="N303" s="13" t="s">
         <v>481</v>
@@ -18647,8 +18644,8 @@
       <c r="L304" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="M304" s="18">
-        <v>0.99730843922066803</v>
+      <c r="M304" s="16">
+        <v>2.20617972374E-4</v>
       </c>
       <c r="N304" s="15" t="s">
         <v>481</v>
@@ -18685,8 +18682,8 @@
       <c r="L305" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="M305" s="17">
-        <v>0.99868081584391222</v>
+      <c r="M305" s="14">
+        <v>2.2134559861010001E-4</v>
       </c>
       <c r="N305" s="13" t="s">
         <v>481</v>
@@ -18723,8 +18720,8 @@
       <c r="L306" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="M306" s="18">
-        <v>0.99941925022452383</v>
+      <c r="M306" s="16">
+        <v>2.2157859882660001E-4</v>
       </c>
       <c r="N306" s="15" t="s">
         <v>481</v>
@@ -18761,8 +18758,8 @@
       <c r="L307" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="M307" s="17">
-        <v>0.99909165003889677</v>
+      <c r="M307" s="14">
+        <v>2.2147929856239999E-4</v>
       </c>
       <c r="N307" s="13" t="s">
         <v>481</v>
@@ -18799,8 +18796,8 @@
       <c r="L308" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="M308" s="18">
-        <v>0.9985831691599788</v>
+      <c r="M308" s="16">
+        <v>2.2126193701809999E-4</v>
       </c>
       <c r="N308" s="15" t="s">
         <v>481</v>
@@ -18837,8 +18834,8 @@
       <c r="L309" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="M309" s="17">
-        <v>0.99830247954958384</v>
+      <c r="M309" s="14">
+        <v>2.2115306528809999E-4</v>
       </c>
       <c r="N309" s="13" t="s">
         <v>481</v>
@@ -18875,8 +18872,8 @@
       <c r="L310" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="M310" s="18">
-        <v>0.99791915178964463</v>
+      <c r="M310" s="16">
+        <v>2.2099427665979999E-4</v>
       </c>
       <c r="N310" s="15" t="s">
         <v>481</v>
@@ -18913,8 +18910,8 @@
       <c r="L311" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="M311" s="17">
-        <v>0.99685373669431365</v>
+      <c r="M311" s="14">
+        <v>2.2074857125840001E-4</v>
       </c>
       <c r="N311" s="13" t="s">
         <v>481</v>
@@ -18951,8 +18948,8 @@
       <c r="L312" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="M312" s="18">
-        <v>0.99811498736440496</v>
+      <c r="M312" s="16">
+        <v>2.2111120400410001E-4</v>
       </c>
       <c r="N312" s="15" t="s">
         <v>481</v>
@@ -18989,8 +18986,8 @@
       <c r="L313" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="M313" s="17">
-        <v>0.99410982152640015</v>
+      <c r="M313" s="14">
+        <v>2.202210886126E-4</v>
       </c>
       <c r="N313" s="13" t="s">
         <v>481</v>
@@ -19027,8 +19024,8 @@
       <c r="L314" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="M314" s="18">
-        <v>0.99047625095413316</v>
+      <c r="M314" s="16">
+        <v>2.1854401007719999E-4</v>
       </c>
       <c r="N314" s="15" t="s">
         <v>481</v>
@@ -19065,8 +19062,8 @@
       <c r="L315" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="M315" s="17">
-        <v>0.98935216688530825</v>
+      <c r="M315" s="14">
+        <v>2.1555654915289999E-4</v>
       </c>
       <c r="N315" s="13" t="s">
         <v>481</v>
@@ -19103,8 +19100,8 @@
       <c r="L316" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="M316" s="18">
-        <v>0.96962693080026163</v>
+      <c r="M316" s="16">
+        <v>2.0553852485929999E-4</v>
       </c>
       <c r="N316" s="15" t="s">
         <v>481</v>
@@ -19141,8 +19138,8 @@
       <c r="L317" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="M317" s="17">
-        <v>0.91875384734789922</v>
+      <c r="M317" s="14">
+        <v>1.908056300961E-4</v>
       </c>
       <c r="N317" s="13" t="s">
         <v>481</v>
@@ -19179,8 +19176,8 @@
       <c r="L318" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="M318" s="18">
-        <v>0.78728267131964824</v>
+      <c r="M318" s="16">
+        <v>1.5362855279499999E-4</v>
       </c>
       <c r="N318" s="15" t="s">
         <v>481</v>
@@ -19217,8 +19214,8 @@
       <c r="L319" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="M319" s="17">
-        <v>0.54848181783049199</v>
+      <c r="M319" s="14">
+        <v>1.066433170812E-4</v>
       </c>
       <c r="N319" s="13" t="s">
         <v>481</v>
@@ -19255,8 +19252,8 @@
       <c r="L320" s="15" t="s">
         <v>791</v>
       </c>
-      <c r="M320" s="18">
-        <v>0.3449858572929283</v>
+      <c r="M320" s="16">
+        <v>6.6927953285493395E-5</v>
       </c>
       <c r="N320" s="15" t="s">
         <v>481</v>
@@ -19293,8 +19290,8 @@
       <c r="L321" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="M321" s="17">
-        <v>0.19263735969677609</v>
+      <c r="M321" s="14">
+        <v>3.7094378653322728E-5</v>
       </c>
       <c r="N321" s="13" t="s">
         <v>481</v>
@@ -19331,8 +19328,8 @@
       <c r="L322" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="M322" s="18">
-        <v>0.13075356902390239</v>
+      <c r="M322" s="16">
+        <v>2.5292531769460352E-5</v>
       </c>
       <c r="N322" s="15" t="s">
         <v>481</v>
@@ -19369,8 +19366,8 @@
       <c r="L323" s="13" t="s">
         <v>794</v>
       </c>
-      <c r="M323" s="17">
-        <v>9.8505227277777704E-2</v>
+      <c r="M323" s="14">
+        <v>1.8771660981023652E-5</v>
       </c>
       <c r="N323" s="13" t="s">
         <v>481</v>
@@ -19407,8 +19404,8 @@
       <c r="L324" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="M324" s="18">
-        <v>3.9762679390415702E-2</v>
+      <c r="M324" s="16">
+        <v>7.6119897333374995E-6</v>
       </c>
       <c r="N324" s="15" t="s">
         <v>481</v>
@@ -19445,8 +19442,8 @@
       <c r="L325" s="13" t="s">
         <v>796</v>
       </c>
-      <c r="M325" s="17">
-        <v>4.3574814723133001E-2</v>
+      <c r="M325" s="14">
+        <v>8.4083627700072439E-6</v>
       </c>
       <c r="N325" s="13" t="s">
         <v>481</v>
@@ -19483,8 +19480,8 @@
       <c r="L326" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="M326" s="18">
-        <v>4.7311053326142397E-2</v>
+      <c r="M326" s="16">
+        <v>9.4737183401107162E-6</v>
       </c>
       <c r="N326" s="15" t="s">
         <v>481</v>
@@ -19521,8 +19518,8 @@
       <c r="L327" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="M327" s="17">
-        <v>3.3102572608295702E-2</v>
+      <c r="M327" s="14">
+        <v>6.5560382631807483E-6</v>
       </c>
       <c r="N327" s="13" t="s">
         <v>481</v>
@@ -19559,8 +19556,8 @@
       <c r="L328" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="M328" s="18">
-        <v>2.7938955511491202E-2</v>
+      <c r="M328" s="16">
+        <v>5.543294482015992E-6</v>
       </c>
       <c r="N328" s="15" t="s">
         <v>481</v>
@@ -19597,8 +19594,8 @@
       <c r="L329" s="13" t="s">
         <v>800</v>
       </c>
-      <c r="M329" s="17">
-        <v>3.8081172627368098E-2</v>
+      <c r="M329" s="14">
+        <v>7.4975253074991008E-6</v>
       </c>
       <c r="N329" s="13" t="s">
         <v>481</v>
@@ -19635,8 +19632,8 @@
       <c r="L330" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="M330" s="18">
-        <v>2.61607678451093E-2</v>
+      <c r="M330" s="16">
+        <v>5.158409072377279E-6</v>
       </c>
       <c r="N330" s="15" t="s">
         <v>481</v>
@@ -19673,8 +19670,8 @@
       <c r="L331" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="M331" s="17">
-        <v>1.2412720805935799E-2</v>
+      <c r="M331" s="14">
+        <v>2.3773175590506923E-6</v>
       </c>
       <c r="N331" s="13" t="s">
         <v>481</v>
@@ -19711,8 +19708,8 @@
       <c r="L332" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="M332" s="18">
-        <v>1.0204259478045799E-2</v>
+      <c r="M332" s="16">
+        <v>1.972301503911018E-6</v>
       </c>
       <c r="N332" s="15" t="s">
         <v>481</v>
@@ -19749,8 +19746,8 @@
       <c r="L333" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="M333" s="17">
-        <v>1.0070612713828199E-2</v>
+      <c r="M333" s="14">
+        <v>1.4827246858263805E-6</v>
       </c>
       <c r="N333" s="13" t="s">
         <v>481</v>
@@ -19787,8 +19784,8 @@
       <c r="L334" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="M334" s="18">
-        <v>8.0053282738898005E-3</v>
+      <c r="M334" s="16">
+        <v>1.5761152777961791E-6</v>
       </c>
       <c r="N334" s="15" t="s">
         <v>481</v>
@@ -19825,8 +19822,8 @@
       <c r="L335" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="M335" s="17">
-        <v>9.9091948508481E-3</v>
+      <c r="M335" s="14">
+        <v>1.983607764077557E-6</v>
       </c>
       <c r="N335" s="13" t="s">
         <v>481</v>
@@ -19863,8 +19860,8 @@
       <c r="L336" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="M336" s="18">
-        <v>1.10215830869987E-2</v>
+      <c r="M336" s="16">
+        <v>2.013037190796726E-6</v>
       </c>
       <c r="N336" s="15" t="s">
         <v>481</v>
@@ -19901,8 +19898,8 @@
       <c r="L337" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="M337" s="17">
-        <v>2.9577534579555299E-2</v>
+      <c r="M337" s="14">
+        <v>5.6921670416468186E-6</v>
       </c>
       <c r="N337" s="13" t="s">
         <v>481</v>
@@ -19939,8 +19936,8 @@
       <c r="L338" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="M338" s="18">
-        <v>6.5922626989621605E-2</v>
+      <c r="M338" s="16">
+        <v>1.2719467913064262E-5</v>
       </c>
       <c r="N338" s="15" t="s">
         <v>481</v>
@@ -19977,8 +19974,8 @@
       <c r="L339" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="M339" s="17">
-        <v>7.3435692829184399E-2</v>
+      <c r="M339" s="14">
+        <v>1.4241278222061497E-5</v>
       </c>
       <c r="N339" s="13" t="s">
         <v>481</v>
@@ -20015,8 +20012,8 @@
       <c r="L340" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="M340" s="18">
-        <v>3.44373748003695E-2</v>
+      <c r="M340" s="16">
+        <v>6.6250973198352368E-6</v>
       </c>
       <c r="N340" s="15" t="s">
         <v>481</v>
@@ -20053,8 +20050,8 @@
       <c r="L341" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="M341" s="17">
-        <v>7.2892274271785004E-2</v>
+      <c r="M341" s="14">
+        <v>1.4135402252454342E-5</v>
       </c>
       <c r="N341" s="13" t="s">
         <v>481</v>
@@ -20091,8 +20088,8 @@
       <c r="L342" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="M342" s="18">
-        <v>8.1614010336493806E-2</v>
+      <c r="M342" s="16">
+        <v>1.5892705852307918E-5</v>
       </c>
       <c r="N342" s="15" t="s">
         <v>481</v>
@@ -20129,8 +20126,8 @@
       <c r="L343" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="M343" s="17">
-        <v>0.12889238325555821</v>
+      <c r="M343" s="14">
+        <v>2.5141509608241787E-5</v>
       </c>
       <c r="N343" s="13" t="s">
         <v>481</v>
@@ -20167,8 +20164,8 @@
       <c r="L344" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="M344" s="18">
-        <v>0.22091201925899309</v>
+      <c r="M344" s="16">
+        <v>4.3390369476811589E-5</v>
       </c>
       <c r="N344" s="15" t="s">
         <v>481</v>
@@ -20205,8 +20202,8 @@
       <c r="L345" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="M345" s="17">
-        <v>0.32114279331151679</v>
+      <c r="M345" s="14">
+        <v>6.2705637431624062E-5</v>
       </c>
       <c r="N345" s="13" t="s">
         <v>481</v>
@@ -20243,8 +20240,8 @@
       <c r="L346" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="M346" s="18">
-        <v>0.47961714527022059</v>
+      <c r="M346" s="16">
+        <v>9.3977676606068399E-5</v>
       </c>
       <c r="N346" s="15" t="s">
         <v>481</v>
@@ -20281,8 +20278,8 @@
       <c r="L347" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="M347" s="17">
-        <v>0.64621442599019285</v>
+      <c r="M347" s="14">
+        <v>1.281767544386E-4</v>
       </c>
       <c r="N347" s="13" t="s">
         <v>481</v>
@@ -20319,8 +20316,8 @@
       <c r="L348" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="M348" s="18">
-        <v>0.74759204996441109</v>
+      <c r="M348" s="16">
+        <v>1.5051836823560001E-4</v>
       </c>
       <c r="N348" s="15" t="s">
         <v>481</v>
@@ -20357,8 +20354,8 @@
       <c r="L349" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="M349" s="17">
-        <v>0.91635861996393042</v>
+      <c r="M349" s="14">
+        <v>1.896103592531E-4</v>
       </c>
       <c r="N349" s="13" t="s">
         <v>481</v>
@@ -20395,8 +20392,8 @@
       <c r="L350" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="M350" s="18">
-        <v>0.96422763798798083</v>
+      <c r="M350" s="16">
+        <v>2.0795793996279999E-4</v>
       </c>
       <c r="N350" s="15" t="s">
         <v>481</v>
@@ -20433,8 +20430,8 @@
       <c r="L351" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="M351" s="17">
-        <v>0.97368639647780997</v>
+      <c r="M351" s="14">
+        <v>2.1176346931220001E-4</v>
       </c>
       <c r="N351" s="13" t="s">
         <v>481</v>
@@ -20471,8 +20468,8 @@
       <c r="L352" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="M352" s="18">
-        <v>0.96483413268565676</v>
+      <c r="M352" s="16">
+        <v>2.0522513460409999E-4</v>
       </c>
       <c r="N352" s="15" t="s">
         <v>481</v>
@@ -20509,8 +20506,8 @@
       <c r="L353" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="M353" s="17">
-        <v>0.95942808849346684</v>
+      <c r="M353" s="14">
+        <v>2.027086763503E-4</v>
       </c>
       <c r="N353" s="13" t="s">
         <v>481</v>
@@ -20547,8 +20544,8 @@
       <c r="L354" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="M354" s="18">
-        <v>0.94108610968429141</v>
+      <c r="M354" s="16">
+        <v>1.9667556512899999E-4</v>
       </c>
       <c r="N354" s="15" t="s">
         <v>481</v>
@@ -20585,8 +20582,8 @@
       <c r="L355" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="M355" s="17">
-        <v>0.91248020368901062</v>
+      <c r="M355" s="14">
+        <v>1.8373900091189999E-4</v>
       </c>
       <c r="N355" s="13" t="s">
         <v>481</v>
@@ -20623,8 +20620,8 @@
       <c r="L356" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="M356" s="18">
-        <v>0.83484550434793103</v>
+      <c r="M356" s="16">
+        <v>1.6464854694929999E-4</v>
       </c>
       <c r="N356" s="15" t="s">
         <v>481</v>
@@ -20661,8 +20658,8 @@
       <c r="L357" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="M357" s="17">
-        <v>0.88497491873284073</v>
+      <c r="M357" s="14">
+        <v>1.764943373607E-4</v>
       </c>
       <c r="N357" s="13" t="s">
         <v>481</v>
@@ -20699,8 +20696,8 @@
       <c r="L358" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="M358" s="18">
-        <v>0.9373864613378784</v>
+      <c r="M358" s="16">
+        <v>1.9398690500419999E-4</v>
       </c>
       <c r="N358" s="15" t="s">
         <v>481</v>
@@ -20737,8 +20734,8 @@
       <c r="L359" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="M359" s="17">
-        <v>0.9786176619908068</v>
+      <c r="M359" s="14">
+        <v>2.0865844958539999E-4</v>
       </c>
       <c r="N359" s="13" t="s">
         <v>481</v>
@@ -20775,8 +20772,8 @@
       <c r="L360" s="15" t="s">
         <v>831</v>
       </c>
-      <c r="M360" s="18">
-        <v>0.98769220532837521</v>
+      <c r="M360" s="16">
+        <v>2.1585191894560001E-4</v>
       </c>
       <c r="N360" s="15" t="s">
         <v>481</v>
@@ -20813,8 +20810,8 @@
       <c r="L361" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="M361" s="17">
-        <v>0.98942964779187637</v>
+      <c r="M361" s="14">
+        <v>2.1609403155570001E-4</v>
       </c>
       <c r="N361" s="13" t="s">
         <v>481</v>
@@ -20851,8 +20848,8 @@
       <c r="L362" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="M362" s="18">
-        <v>0.98775605376552345</v>
+      <c r="M362" s="16">
+        <v>2.142526209305E-4</v>
       </c>
       <c r="N362" s="15" t="s">
         <v>481</v>
@@ -20889,8 +20886,8 @@
       <c r="L363" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="M363" s="17">
-        <v>0.99112927383637162</v>
+      <c r="M363" s="14">
+        <v>2.1264179640670001E-4</v>
       </c>
       <c r="N363" s="13" t="s">
         <v>481</v>
@@ -20927,8 +20924,8 @@
       <c r="L364" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="M364" s="18">
-        <v>0.98114301610415555</v>
+      <c r="M364" s="16">
+        <v>2.0988537422680001E-4</v>
       </c>
       <c r="N364" s="15" t="s">
         <v>481</v>
@@ -20965,8 +20962,8 @@
       <c r="L365" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="M365" s="17">
-        <v>0.98447869119300879</v>
+      <c r="M365" s="14">
+        <v>2.1169978268650001E-4</v>
       </c>
       <c r="N365" s="13" t="s">
         <v>481</v>
@@ -21003,8 +21000,8 @@
       <c r="L366" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="M366" s="18">
-        <v>0.99328205181716001</v>
+      <c r="M366" s="16">
+        <v>2.158060136574E-4</v>
       </c>
       <c r="N366" s="15" t="s">
         <v>481</v>
@@ -21041,8 +21038,8 @@
       <c r="L367" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="M367" s="17">
-        <v>0.99269168319301682</v>
+      <c r="M367" s="14">
+        <v>2.1325799987830001E-4</v>
       </c>
       <c r="N367" s="13" t="s">
         <v>481</v>
@@ -21079,8 +21076,8 @@
       <c r="L368" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="M368" s="18">
-        <v>0.9809451399478708</v>
+      <c r="M368" s="16">
+        <v>2.0964903545569999E-4</v>
       </c>
       <c r="N368" s="15" t="s">
         <v>481</v>
@@ -21117,8 +21114,8 @@
       <c r="L369" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="M369" s="17">
-        <v>0.98168554636322802</v>
+      <c r="M369" s="14">
+        <v>2.1186721900659999E-4</v>
       </c>
       <c r="N369" s="13" t="s">
         <v>481</v>
@@ -21155,8 +21152,8 @@
       <c r="L370" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="M370" s="18">
-        <v>0.97243575557106166</v>
+      <c r="M370" s="16">
+        <v>2.0807702495869999E-4</v>
       </c>
       <c r="N370" s="15" t="s">
         <v>481</v>
@@ -21193,8 +21190,8 @@
       <c r="L371" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="M371" s="17">
-        <v>0.91305318307694638</v>
+      <c r="M371" s="14">
+        <v>1.882883576944E-4</v>
       </c>
       <c r="N371" s="13" t="s">
         <v>481</v>
@@ -21231,8 +21228,8 @@
       <c r="L372" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="M372" s="18">
-        <v>0.9134284394316774</v>
+      <c r="M372" s="16">
+        <v>1.8864161010740001E-4</v>
       </c>
       <c r="N372" s="15" t="s">
         <v>481</v>
@@ -21269,8 +21266,8 @@
       <c r="L373" s="13" t="s">
         <v>844</v>
       </c>
-      <c r="M373" s="17">
-        <v>0.84300080305894709</v>
+      <c r="M373" s="14">
+        <v>1.7039966493449999E-4</v>
       </c>
       <c r="N373" s="13" t="s">
         <v>481</v>
@@ -21307,8 +21304,8 @@
       <c r="L374" s="15" t="s">
         <v>845</v>
       </c>
-      <c r="M374" s="18">
-        <v>0.77969883144998109</v>
+      <c r="M374" s="16">
+        <v>1.5482073971450001E-4</v>
       </c>
       <c r="N374" s="15" t="s">
         <v>481</v>
@@ -21345,8 +21342,8 @@
       <c r="L375" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="M375" s="17">
-        <v>0.64992096626430162</v>
+      <c r="M375" s="14">
+        <v>1.2803618655579999E-4</v>
       </c>
       <c r="N375" s="13" t="s">
         <v>481</v>
@@ -21383,8 +21380,8 @@
       <c r="L376" s="15" t="s">
         <v>847</v>
       </c>
-      <c r="M376" s="18">
-        <v>0.52939227895371399</v>
+      <c r="M376" s="16">
+        <v>1.036386387157E-4</v>
       </c>
       <c r="N376" s="15" t="s">
         <v>481</v>
@@ -21421,8 +21418,8 @@
       <c r="L377" s="13" t="s">
         <v>848</v>
       </c>
-      <c r="M377" s="17">
-        <v>0.48213899825575363</v>
+      <c r="M377" s="14">
+        <v>9.4205604385176194E-5</v>
       </c>
       <c r="N377" s="13" t="s">
         <v>481</v>
@@ -21459,8 +21456,8 @@
       <c r="L378" s="15" t="s">
         <v>849</v>
       </c>
-      <c r="M378" s="18">
-        <v>0.4709426425419907</v>
+      <c r="M378" s="16">
+        <v>9.2196554262753122E-5</v>
       </c>
       <c r="N378" s="15" t="s">
         <v>481</v>
@@ -21497,8 +21494,8 @@
       <c r="L379" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="M379" s="17">
-        <v>0.39857147954521449</v>
+      <c r="M379" s="14">
+        <v>7.8245467512110941E-5</v>
       </c>
       <c r="N379" s="13" t="s">
         <v>481</v>
@@ -21535,8 +21532,8 @@
       <c r="L380" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="M380" s="18">
-        <v>0.29490353313869322</v>
+      <c r="M380" s="16">
+        <v>5.7806115024962017E-5</v>
       </c>
       <c r="N380" s="15" t="s">
         <v>481</v>
@@ -21573,8 +21570,8 @@
       <c r="L381" s="13" t="s">
         <v>852</v>
       </c>
-      <c r="M381" s="17">
-        <v>0.2399004130073672</v>
+      <c r="M381" s="14">
+        <v>4.7260730724270607E-5</v>
       </c>
       <c r="N381" s="13" t="s">
         <v>481</v>
@@ -21611,8 +21608,8 @@
       <c r="L382" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="M382" s="18">
-        <v>0.2212919562141554</v>
+      <c r="M382" s="16">
+        <v>4.3644572956603424E-5</v>
       </c>
       <c r="N382" s="15" t="s">
         <v>481</v>
@@ -21649,8 +21646,8 @@
       <c r="L383" s="13" t="s">
         <v>854</v>
       </c>
-      <c r="M383" s="17">
-        <v>0.1938367557472557</v>
+      <c r="M383" s="14">
+        <v>3.8308034829617997E-5</v>
       </c>
       <c r="N383" s="13" t="s">
         <v>481</v>
@@ -21687,8 +21684,8 @@
       <c r="L384" s="15" t="s">
         <v>855</v>
       </c>
-      <c r="M384" s="18">
-        <v>0.1101616979327714</v>
+      <c r="M384" s="16">
+        <v>2.16343038947126E-5</v>
       </c>
       <c r="N384" s="15" t="s">
         <v>481</v>
@@ -21725,8 +21722,8 @@
       <c r="L385" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="M385" s="17">
-        <v>5.6867086642132497E-2</v>
+      <c r="M385" s="14">
+        <v>1.1023467434386046E-5</v>
       </c>
       <c r="N385" s="13" t="s">
         <v>481</v>
@@ -21763,8 +21760,8 @@
       <c r="L386" s="15" t="s">
         <v>857</v>
       </c>
-      <c r="M386" s="18">
-        <v>3.4582967212572799E-2</v>
+      <c r="M386" s="16">
+        <v>6.5351416129323174E-6</v>
       </c>
       <c r="N386" s="15" t="s">
         <v>481</v>
@@ -21801,8 +21798,8 @@
       <c r="L387" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="M387" s="17">
-        <v>3.1945711173136999E-2</v>
+      <c r="M387" s="14">
+        <v>5.9551449364997117E-6</v>
       </c>
       <c r="N387" s="13" t="s">
         <v>481</v>
@@ -21839,8 +21836,8 @@
       <c r="L388" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="M388" s="18">
-        <v>2.5763129769123001E-2</v>
+      <c r="M388" s="16">
+        <v>4.8430968458205468E-6</v>
       </c>
       <c r="N388" s="15" t="s">
         <v>481</v>
@@ -21877,8 +21874,8 @@
       <c r="L389" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="M389" s="17">
-        <v>2.1423078662630601E-2</v>
+      <c r="M389" s="14">
+        <v>3.9669269795061638E-6</v>
       </c>
       <c r="N389" s="13" t="s">
         <v>481</v>
@@ -21915,8 +21912,8 @@
       <c r="L390" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="M390" s="18">
-        <v>2.1946833245809101E-2</v>
+      <c r="M390" s="16">
+        <v>4.0662161642276976E-6</v>
       </c>
       <c r="N390" s="15" t="s">
         <v>481</v>
@@ -21953,8 +21950,8 @@
       <c r="L391" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="M391" s="17">
-        <v>2.8294097205451701E-2</v>
+      <c r="M391" s="14">
+        <v>5.4030100110929786E-6</v>
       </c>
       <c r="N391" s="13" t="s">
         <v>481</v>
@@ -21991,8 +21988,8 @@
       <c r="L392" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="M392" s="18">
-        <v>3.8019476249953603E-2</v>
+      <c r="M392" s="16">
+        <v>7.2537277988370921E-6</v>
       </c>
       <c r="N392" s="15" t="s">
         <v>481</v>
@@ -22029,8 +22026,8 @@
       <c r="L393" s="13" t="s">
         <v>864</v>
       </c>
-      <c r="M393" s="17">
-        <v>6.0789041788112001E-2</v>
+      <c r="M393" s="14">
+        <v>1.1869246521193647E-5</v>
       </c>
       <c r="N393" s="13" t="s">
         <v>481</v>
@@ -22067,8 +22064,8 @@
       <c r="L394" s="15" t="s">
         <v>865</v>
       </c>
-      <c r="M394" s="18">
-        <v>8.8584436220248294E-2</v>
+      <c r="M394" s="16">
+        <v>1.7166496966635407E-5</v>
       </c>
       <c r="N394" s="15" t="s">
         <v>481</v>
@@ -22105,8 +22102,8 @@
       <c r="L395" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="M395" s="17">
-        <v>0.133091560830539</v>
+      <c r="M395" s="14">
+        <v>2.6169094878340745E-5</v>
       </c>
       <c r="N395" s="13" t="s">
         <v>481</v>
@@ -22143,8 +22140,8 @@
       <c r="L396" s="15" t="s">
         <v>867</v>
       </c>
-      <c r="M396" s="18">
-        <v>0.1774671524302876</v>
+      <c r="M396" s="16">
+        <v>3.455376161056714E-5</v>
       </c>
       <c r="N396" s="15" t="s">
         <v>481</v>
@@ -22181,8 +22178,8 @@
       <c r="L397" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="M397" s="17">
-        <v>0.22464316656650549</v>
+      <c r="M397" s="14">
+        <v>4.4393076724836072E-5</v>
       </c>
       <c r="N397" s="13" t="s">
         <v>481</v>
@@ -22219,8 +22216,8 @@
       <c r="L398" s="15" t="s">
         <v>869</v>
       </c>
-      <c r="M398" s="18">
-        <v>0.29470082600162978</v>
+      <c r="M398" s="16">
+        <v>5.7879646146962927E-5</v>
       </c>
       <c r="N398" s="15" t="s">
         <v>481</v>
@@ -22257,8 +22254,8 @@
       <c r="L399" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="M399" s="17">
-        <v>0.30818165572563272</v>
+      <c r="M399" s="14">
+        <v>6.0357694969050818E-5</v>
       </c>
       <c r="N399" s="13" t="s">
         <v>481</v>
@@ -22295,8 +22292,8 @@
       <c r="L400" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="M400" s="18">
-        <v>0.29799829769092268</v>
+      <c r="M400" s="16">
+        <v>5.8678206043151368E-5</v>
       </c>
       <c r="N400" s="15" t="s">
         <v>481</v>
@@ -22333,8 +22330,8 @@
       <c r="L401" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="M401" s="17">
-        <v>0.28001867208520259</v>
+      <c r="M401" s="14">
+        <v>5.5105586528160209E-5</v>
       </c>
       <c r="N401" s="13" t="s">
         <v>481</v>
@@ -22371,8 +22368,8 @@
       <c r="L402" s="15" t="s">
         <v>873</v>
       </c>
-      <c r="M402" s="18">
-        <v>0.25179516051750672</v>
+      <c r="M402" s="16">
+        <v>4.9522175651136307E-5</v>
       </c>
       <c r="N402" s="15" t="s">
         <v>481</v>
@@ -22409,8 +22406,8 @@
       <c r="L403" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="M403" s="17">
-        <v>0.28800089074565238</v>
+      <c r="M403" s="14">
+        <v>5.6490623807654291E-5</v>
       </c>
       <c r="N403" s="13" t="s">
         <v>481</v>
@@ -22447,8 +22444,8 @@
       <c r="L404" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="M404" s="18">
-        <v>0.28313529709556551</v>
+      <c r="M404" s="16">
+        <v>5.5720623728500105E-5</v>
       </c>
       <c r="N404" s="15" t="s">
         <v>481</v>
@@ -22485,8 +22482,8 @@
       <c r="L405" s="13" t="s">
         <v>876</v>
       </c>
-      <c r="M405" s="17">
-        <v>0.26569197428271629</v>
+      <c r="M405" s="14">
+        <v>5.2559841808784683E-5</v>
       </c>
       <c r="N405" s="13" t="s">
         <v>481</v>
@@ -22523,8 +22520,8 @@
       <c r="L406" s="15" t="s">
         <v>877</v>
       </c>
-      <c r="M406" s="18">
-        <v>0.26454048680498682</v>
+      <c r="M406" s="16">
+        <v>5.2254894238142131E-5</v>
       </c>
       <c r="N406" s="15" t="s">
         <v>481</v>
@@ -22561,8 +22558,8 @@
       <c r="L407" s="13" t="s">
         <v>878</v>
       </c>
-      <c r="M407" s="17">
-        <v>0.24770470056525329</v>
+      <c r="M407" s="14">
+        <v>4.8562044178818522E-5</v>
       </c>
       <c r="N407" s="13" t="s">
         <v>481</v>
@@ -22599,8 +22596,8 @@
       <c r="L408" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="M408" s="18">
-        <v>0.17530977801825459</v>
+      <c r="M408" s="16">
+        <v>3.4319182846833175E-5</v>
       </c>
       <c r="N408" s="15" t="s">
         <v>481</v>
@@ -22637,8 +22634,8 @@
       <c r="L409" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="M409" s="17">
-        <v>0.1705274451596035</v>
+      <c r="M409" s="14">
+        <v>3.3347969154676885E-5</v>
       </c>
       <c r="N409" s="13" t="s">
         <v>481</v>
@@ -22675,8 +22672,8 @@
       <c r="L410" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="M410" s="18">
-        <v>0.12716752699120651</v>
+      <c r="M410" s="16">
+        <v>2.470111955668213E-5</v>
       </c>
       <c r="N410" s="15" t="s">
         <v>481</v>
@@ -22713,8 +22710,8 @@
       <c r="L411" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="M411" s="17">
-        <v>8.7968152625283902E-2</v>
+      <c r="M411" s="14">
+        <v>1.7040293987764687E-5</v>
       </c>
       <c r="N411" s="13" t="s">
         <v>481</v>
@@ -22751,8 +22748,8 @@
       <c r="L412" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="M412" s="18">
-        <v>8.6061108572737896E-2</v>
+      <c r="M412" s="16">
+        <v>1.6622515726208363E-5</v>
       </c>
       <c r="N412" s="15" t="s">
         <v>481</v>
@@ -22789,8 +22786,8 @@
       <c r="L413" s="13" t="s">
         <v>884</v>
       </c>
-      <c r="M413" s="17">
-        <v>0.10853107921955731</v>
+      <c r="M413" s="14">
+        <v>2.0864178680818556E-5</v>
       </c>
       <c r="N413" s="13" t="s">
         <v>481</v>
@@ -22827,8 +22824,8 @@
       <c r="L414" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="M414" s="18">
-        <v>0.15139225854517449</v>
+      <c r="M414" s="16">
+        <v>2.9445456258034599E-5</v>
       </c>
       <c r="N414" s="15" t="s">
         <v>481</v>
@@ -22865,8 +22862,8 @@
       <c r="L415" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="M415" s="17">
-        <v>0.18768626686037931</v>
+      <c r="M415" s="14">
+        <v>3.6344017929912908E-5</v>
       </c>
       <c r="N415" s="13" t="s">
         <v>481</v>
@@ -22903,8 +22900,8 @@
       <c r="L416" s="15" t="s">
         <v>887</v>
       </c>
-      <c r="M416" s="18">
-        <v>0.25872772240803033</v>
+      <c r="M416" s="16">
+        <v>5.0602729697629612E-5</v>
       </c>
       <c r="N416" s="15" t="s">
         <v>481</v>
@@ -22941,8 +22938,8 @@
       <c r="L417" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="M417" s="17">
-        <v>0.40241891881732672</v>
+      <c r="M417" s="14">
+        <v>7.8744892110771219E-5</v>
       </c>
       <c r="N417" s="13" t="s">
         <v>481</v>
@@ -22979,8 +22976,8 @@
       <c r="L418" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="M418" s="18">
-        <v>0.54289546412711631</v>
+      <c r="M418" s="16">
+        <v>1.0683808278909999E-4</v>
       </c>
       <c r="N418" s="15" t="s">
         <v>481</v>
@@ -23017,8 +23014,8 @@
       <c r="L419" s="13" t="s">
         <v>890</v>
       </c>
-      <c r="M419" s="17">
-        <v>0.69140033469813922</v>
+      <c r="M419" s="14">
+        <v>1.3527550366060001E-4</v>
       </c>
       <c r="N419" s="13" t="s">
         <v>481</v>
@@ -23055,8 +23052,8 @@
       <c r="L420" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="M420" s="18">
-        <v>0.887189797649517</v>
+      <c r="M420" s="16">
+        <v>1.791238859967E-4</v>
       </c>
       <c r="N420" s="15" t="s">
         <v>481</v>
@@ -23093,8 +23090,8 @@
       <c r="L421" s="13" t="s">
         <v>892</v>
       </c>
-      <c r="M421" s="17">
-        <v>0.98312763523512359</v>
+      <c r="M421" s="14">
+        <v>2.104407911139E-4</v>
       </c>
       <c r="N421" s="13" t="s">
         <v>481</v>
@@ -23131,8 +23128,8 @@
       <c r="L422" s="15" t="s">
         <v>893</v>
       </c>
-      <c r="M422" s="18">
-        <v>169.10309860617267</v>
+      <c r="M422" s="16">
+        <v>3.6662071087535136E-2</v>
       </c>
       <c r="N422" s="15" t="s">
         <v>481</v>
@@ -23169,8 +23166,8 @@
       <c r="L423" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="M423" s="17">
-        <v>23.985187432088011</v>
+      <c r="M423" s="14">
+        <v>5.330109965263727E-3</v>
       </c>
       <c r="N423" s="13" t="s">
         <v>481</v>
@@ -23207,8 +23204,8 @@
       <c r="L424" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="M424" s="18">
-        <v>23.958707950812247</v>
+      <c r="M424" s="16">
+        <v>5.3335867092306685E-3</v>
       </c>
       <c r="N424" s="15" t="s">
         <v>481</v>
@@ -23245,8 +23242,8 @@
       <c r="L425" s="13" t="s">
         <v>896</v>
       </c>
-      <c r="M425" s="17">
-        <v>24.447082907321526</v>
+      <c r="M425" s="14">
+        <v>5.5226868815515763E-3</v>
       </c>
       <c r="N425" s="13" t="s">
         <v>481</v>
@@ -23283,8 +23280,8 @@
       <c r="L426" s="15" t="s">
         <v>897</v>
       </c>
-      <c r="M426" s="18">
-        <v>24.186617114130168</v>
+      <c r="M426" s="16">
+        <v>5.40352063316199E-3</v>
       </c>
       <c r="N426" s="15" t="s">
         <v>481</v>
@@ -23321,8 +23318,8 @@
       <c r="L427" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="M427" s="17">
-        <v>121.28256081786121</v>
+      <c r="M427" s="14">
+        <v>2.6112136774622572E-2</v>
       </c>
       <c r="N427" s="13" t="s">
         <v>481</v>
@@ -23359,8 +23356,8 @@
       <c r="L428" s="15" t="s">
         <v>899</v>
       </c>
-      <c r="M428" s="18">
-        <v>47.742216627882641</v>
+      <c r="M428" s="16">
+        <v>1.0408000848768471E-2</v>
       </c>
       <c r="N428" s="15" t="s">
         <v>481</v>
@@ -23397,8 +23394,8 @@
       <c r="L429" s="13" t="s">
         <v>900</v>
       </c>
-      <c r="M429" s="17">
-        <v>23.688633450985318</v>
+      <c r="M429" s="14">
+        <v>5.1164171189268335E-3</v>
       </c>
       <c r="N429" s="13" t="s">
         <v>481</v>
@@ -23435,8 +23432,8 @@
       <c r="L430" s="15" t="s">
         <v>901</v>
       </c>
-      <c r="M430" s="18">
-        <v>120.06411007239235</v>
+      <c r="M430" s="16">
+        <v>2.5960862236259676E-2</v>
       </c>
       <c r="N430" s="15" t="s">
         <v>481</v>
@@ -23455,7 +23452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352912CF-2494-4D41-AB38-D140E02D7713}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF86C4B4-C9B3-4E00-919F-70989A70072F}">
   <dimension ref="B2:O843"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
